--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3167CB43-CDC9-4EB8-8869-5457C9296EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025DDB9-2E90-41D0-A33A-62307B528938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C157D167-B9CE-4BD4-9C6F-10FEBE7BB0DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dropped prayer and spiritual healing 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -236,63 +271,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -392,12 +371,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -428,136 +405,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -646,386 +493,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2544,31 +2011,31 @@
   </sheetData>
   <autoFilter ref="A1:AC1" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1" dxfId="50"/>
+      <sortCondition sortBy="cellColor" ref="AC1" dxfId="25"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2578,11 +2045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2632,40 +2099,46 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.70799999999999996</v>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C2">
+        <v>-0.2</v>
       </c>
       <c r="D2">
-        <v>-0.11799999999999999</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0.17799999999999999</v>
+        <v>0.188</v>
+      </c>
+      <c r="H2">
+        <v>0.49099999999999999</v>
       </c>
       <c r="I2">
-        <v>0.33900000000000002</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="J2">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>0.504</v>
+        <v>0.157</v>
+      </c>
+      <c r="O2">
+        <v>0.42699999999999999</v>
       </c>
       <c r="P2">
-        <v>0.14799999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="Q2">
-        <v>-0.378</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="R2" t="s">
         <v>25</v>
@@ -2731,93 +2204,75 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.37</v>
-      </c>
-      <c r="C5">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.318</v>
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I5">
+        <v>-0.24099999999999999</v>
       </c>
       <c r="J5">
-        <v>0.154</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="N5">
-        <v>0.41099999999999998</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.155</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.20100000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="C6">
-        <v>-0.2</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D6">
-        <v>0.53200000000000003</v>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>0.188</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="H6">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="I6">
-        <v>-0.20300000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="J6">
-        <v>0.29099999999999998</v>
+        <v>0.154</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>0.157</v>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.41099999999999998</v>
       </c>
       <c r="O6">
-        <v>0.42699999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="P6">
-        <v>0.151</v>
-      </c>
-      <c r="Q6">
-        <v>0.44500000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="R6" t="s">
         <v>25</v>
@@ -2863,155 +2318,167 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.109</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.48699999999999999</v>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.41599999999999998</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>0.85</v>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.13800000000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>0.82699999999999996</v>
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>0.91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>0.75</v>
-      </c>
-      <c r="I9">
-        <v>0.114</v>
-      </c>
-      <c r="J9">
-        <v>-0.217</v>
+      <c r="G9">
+        <v>0.89400000000000002</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>0.74</v>
-      </c>
-      <c r="Q9">
-        <v>0.224</v>
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>0.745</v>
+      </c>
+      <c r="P9">
+        <v>0.191</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0.90500000000000003</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D10">
+        <v>-0.11799999999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>0.82099999999999995</v>
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.33900000000000002</v>
       </c>
       <c r="J10">
-        <v>0.105</v>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.83899999999999997</v>
+        <v>0.504</v>
+      </c>
+      <c r="P10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>-0.378</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.58499999999999996</v>
+        <v>0.109</v>
+      </c>
+      <c r="C11">
+        <v>0.48699999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I11">
-        <v>-0.24099999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0.13300000000000001</v>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>0.85</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11">
-        <v>0.90800000000000003</v>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.41599999999999998</v>
+        <v>0.91</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>0.55500000000000005</v>
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>0.75</v>
       </c>
       <c r="I12">
-        <v>0.20399999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="J12">
-        <v>0.13800000000000001</v>
+        <v>-0.217</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>0.85199999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>0.74</v>
+      </c>
+      <c r="Q12">
+        <v>0.224</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0.89200000000000002</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0.90500000000000003</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>0.89400000000000002</v>
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.105</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>0.745</v>
-      </c>
-      <c r="P13">
-        <v>0.191</v>
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -3222,25 +2689,26 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="Q1" dxfId="1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3248,9 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3679,21 +3145,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="92"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="16"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3919,11 +3385,11 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{20237AFA-AF5A-4959-9459-F55DA7A9A145}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="91"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="12"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E12">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025DDB9-2E90-41D0-A33A-62307B528938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7712CFC6-0CBD-45F5-A552-6E739DCB7EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
@@ -17,12 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,8 +139,43 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{93B109C3-C5E5-457F-BA6A-EE399D655DD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Models excluding prayer and spiritual healing, tetrachoric matrix on numeric variables 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="26">
   <si>
     <t>ML2</t>
   </si>
@@ -271,7 +308,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -371,10 +456,72 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -443,6 +590,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -817,7 +972,7 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2011,31 +2166,31 @@
   </sheetData>
   <autoFilter ref="A1:AC1" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1" dxfId="25"/>
+      <sortCondition sortBy="cellColor" ref="AC1" dxfId="38"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2048,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2099,46 +2254,40 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-0.2</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D2">
-        <v>0.53200000000000003</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>0.188</v>
-      </c>
-      <c r="H2">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="I2">
-        <v>-0.20300000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
       <c r="M2">
-        <v>0.157</v>
-      </c>
-      <c r="O2">
-        <v>0.42699999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="P2">
-        <v>0.151</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.44500000000000001</v>
+        <v>-0.378</v>
       </c>
       <c r="R2" t="s">
         <v>25</v>
@@ -2204,75 +2353,93 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.58499999999999996</v>
+        <v>0.37</v>
+      </c>
+      <c r="C5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I5">
-        <v>-0.24099999999999999</v>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.318</v>
       </c>
       <c r="J5">
-        <v>0.13300000000000001</v>
+        <v>0.154</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.41099999999999998</v>
       </c>
       <c r="O5">
-        <v>0.90800000000000003</v>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.155</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.37</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C6">
-        <v>0.48399999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="D6">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0.51400000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="H6">
-        <v>0.318</v>
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="I6">
+        <v>-0.20300000000000001</v>
       </c>
       <c r="J6">
-        <v>0.154</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="N6">
-        <v>0.41099999999999998</v>
+        <v>0.157</v>
       </c>
       <c r="O6">
-        <v>0.16500000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="P6">
-        <v>0.155</v>
+        <v>0.151</v>
+      </c>
+      <c r="Q6">
+        <v>0.44500000000000001</v>
       </c>
       <c r="R6" t="s">
         <v>25</v>
@@ -2318,167 +2485,155 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.109</v>
       </c>
       <c r="C8">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.41599999999999998</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I8">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.13800000000000001</v>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0.85</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8">
-        <v>0.85199999999999998</v>
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.89200000000000002</v>
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0.91</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>0.89400000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0.75</v>
+      </c>
+      <c r="I9">
+        <v>0.114</v>
+      </c>
+      <c r="J9">
+        <v>-0.217</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>0.745</v>
-      </c>
-      <c r="P9">
-        <v>0.191</v>
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>0.74</v>
+      </c>
+      <c r="Q9">
+        <v>0.224</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="D10">
-        <v>-0.11799999999999999</v>
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.90500000000000003</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.33900000000000002</v>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>0.82099999999999995</v>
       </c>
       <c r="J10">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
+        <v>0.105</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>0.504</v>
-      </c>
-      <c r="P10">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>-0.378</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.109</v>
-      </c>
-      <c r="C11">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>0.85</v>
+      <c r="G11">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I11">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.13300000000000001</v>
       </c>
       <c r="L11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <v>0.82699999999999996</v>
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>0.91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>0.75</v>
-      </c>
-      <c r="I12">
-        <v>0.114</v>
-      </c>
-      <c r="J12">
-        <v>-0.217</v>
-      </c>
-      <c r="L12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>0.74</v>
-      </c>
-      <c r="Q12">
-        <v>0.224</v>
+      <c r="N12">
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="J13">
-        <v>0.105</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>0.83899999999999997</v>
+      <c r="N13">
+        <v>0.745</v>
+      </c>
+      <c r="P13">
+        <v>0.191</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -2689,22 +2844,25 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="Q1" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+      <formula>-0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2716,7 +2874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3145,21 +3305,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="16"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="32"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3385,14 +3545,284 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{20237AFA-AF5A-4959-9459-F55DA7A9A145}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="12"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="28"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E12">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-0.108</v>
+      </c>
+      <c r="D4">
+        <v>0.313</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0.26</v>
+      </c>
+      <c r="H6">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J6">
+        <v>-0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0.49</v>
+      </c>
+      <c r="J8">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0.39</v>
+      </c>
+      <c r="J10">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.317</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J12">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="10"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:D14">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J14">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7712CFC6-0CBD-45F5-A552-6E739DCB7EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B0FDBF-D918-4467-AE15-C0ADE9B8CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet5!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet6!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,6 +147,66 @@
     <author>hanna</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D5712E48-0578-4E7B-970F-9D684F744419}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Four factor model excluding prayer and spiritual healing using MIDUS-complete data
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{6A9F4E1D-6D92-4062-8A79-2B5448FE1065}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Four factor model, prayer and spiritual healing dropped. 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{93B109C3-C5E5-457F-BA6A-EE399D655DD0}">
       <text>
         <r>
@@ -175,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="26">
   <si>
     <t>ML2</t>
   </si>
@@ -308,7 +370,615 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="182">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -556,14 +1226,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -594,14 +1256,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -618,6 +1272,596 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -971,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A59E54-D4A7-4C25-9D11-CD018EBC24D4}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1049,102 +2293,126 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.872</v>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1.0069999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>0.54800000000000004</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G2">
-        <v>0.27500000000000002</v>
+        <v>0.126</v>
       </c>
       <c r="H2">
-        <v>0.245</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>0.75900000000000001</v>
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>0.77200000000000002</v>
       </c>
       <c r="M2">
-        <v>0.16300000000000001</v>
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.191</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2">
-        <v>0.90200000000000002</v>
+        <v>13</v>
+      </c>
+      <c r="R2">
+        <v>0.188</v>
+      </c>
+      <c r="T2">
+        <v>0.317</v>
+      </c>
+      <c r="U2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
       </c>
       <c r="W2" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>0.55500000000000005</v>
       </c>
       <c r="Y2">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="AC2">
-        <v>0.75800000000000001</v>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.74099999999999999</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="C3">
-        <v>-0.104</v>
+        <v>-0.106</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.55400000000000005</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="G3">
-        <v>0.17</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>0.96</v>
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0.63800000000000001</v>
       </c>
       <c r="N3">
-        <v>0.11</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="P3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>0.40799999999999997</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="R3">
-        <v>-0.114</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="S3">
-        <v>0.128</v>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="U3">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
       </c>
       <c r="W3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>0.20100000000000001</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="Z3">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AB3">
-        <v>0.53200000000000003</v>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>-0.14699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
@@ -1193,55 +2461,49 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0.44800000000000001</v>
+        <v>0.185</v>
+      </c>
+      <c r="C5">
+        <v>0.64800000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="G5">
-        <v>-0.14399999999999999</v>
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>0.998</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>0.505</v>
-      </c>
-      <c r="M5">
-        <v>0.223</v>
-      </c>
-      <c r="N5">
-        <v>-0.22</v>
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>0.88600000000000001</v>
       </c>
       <c r="P5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="S5">
+        <v>0.35</v>
+      </c>
+      <c r="T5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="U5">
+        <v>-0.15</v>
+      </c>
+      <c r="W5" t="s">
         <v>6</v>
       </c>
-      <c r="S5">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="W5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5">
-        <v>0.318</v>
-      </c>
-      <c r="Y5">
-        <v>0.375</v>
-      </c>
       <c r="Z5">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="AA5">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AC5">
-        <v>-0.124</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="AD5" t="s">
         <v>25</v>
@@ -1249,624 +2511,603 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G6">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>0.505</v>
+      </c>
+      <c r="M6">
+        <v>0.223</v>
+      </c>
+      <c r="N6">
+        <v>-0.22</v>
+      </c>
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="G6">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>0.443</v>
-      </c>
-      <c r="L6">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="N6">
-        <v>-0.13900000000000001</v>
-      </c>
-      <c r="P6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6">
-        <v>0.248</v>
-      </c>
       <c r="S6">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="T6">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="U6">
-        <v>0.111</v>
-      </c>
-      <c r="V6" t="s">
-        <v>25</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="W6" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>0.318</v>
+      </c>
+      <c r="Y6">
+        <v>0.375</v>
+      </c>
+      <c r="Z6">
+        <v>0.13400000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.94899999999999995</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="AC6">
-        <v>0.128</v>
+        <v>-0.124</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.185</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="C7">
-        <v>0.64800000000000002</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>0.998</v>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.67900000000000005</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>0.88600000000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="P7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>0.27500000000000002</v>
+        <v>14</v>
       </c>
       <c r="R7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="S7">
-        <v>0.35</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="T7">
-        <v>0.10299999999999999</v>
+        <v>-0.109</v>
       </c>
       <c r="U7">
-        <v>-0.15</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="W7" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>0.501</v>
       </c>
       <c r="Z7">
-        <v>0.96099999999999997</v>
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.223</v>
+      </c>
+      <c r="AC7">
+        <v>-0.19400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.55900000000000005</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="C8">
-        <v>0.105</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>0.65300000000000002</v>
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0.99199999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>0.46700000000000003</v>
       </c>
       <c r="L8">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="M8">
-        <v>-0.11</v>
-      </c>
-      <c r="N8">
-        <v>0.16600000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>0.70299999999999996</v>
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>0.71599999999999997</v>
       </c>
       <c r="S8">
-        <v>0.10100000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="T8">
-        <v>-0.13200000000000001</v>
-      </c>
-      <c r="U8">
-        <v>0.19800000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="W8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA8">
-        <v>-0.114</v>
-      </c>
-      <c r="AC8">
-        <v>0.193</v>
+        <v>9</v>
+      </c>
+      <c r="X8">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.111</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>0.192</v>
+      </c>
+      <c r="G9">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>0.41</v>
+      </c>
+      <c r="L9">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="M9">
+        <v>0.311</v>
+      </c>
+      <c r="N9">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="S9">
+        <v>0.224</v>
+      </c>
+      <c r="U9">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="W9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>0.878</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="M9">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="P9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="R9">
-        <v>0.126</v>
-      </c>
-      <c r="S9">
-        <v>-0.152</v>
-      </c>
-      <c r="U9">
-        <v>-0.107</v>
-      </c>
-      <c r="W9" t="s">
-        <v>11</v>
-      </c>
       <c r="X9">
-        <v>0.108</v>
-      </c>
-      <c r="Y9">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="Z9">
-        <v>0.125</v>
-      </c>
-      <c r="AA9">
-        <v>0.191</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="C10">
-        <v>-0.106</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>0.22800000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="G10">
-        <v>0.50900000000000001</v>
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.122</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0.49199999999999999</v>
       </c>
       <c r="L10">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="N10">
-        <v>-0.16400000000000001</v>
+        <v>-0.107</v>
       </c>
       <c r="P10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>0.35099999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R10">
-        <v>0.36899999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="S10">
-        <v>0.14599999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="T10">
-        <v>0.32400000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="U10">
-        <v>-0.13200000000000001</v>
-      </c>
-      <c r="V10" t="s">
-        <v>25</v>
+        <v>-0.21</v>
       </c>
       <c r="W10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10">
-        <v>0.57799999999999996</v>
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>0.77600000000000002</v>
       </c>
       <c r="Z10">
-        <v>0.21199999999999999</v>
+        <v>0.111</v>
+      </c>
+      <c r="AA10">
+        <v>-0.107</v>
+      </c>
+      <c r="AB10">
+        <v>-0.13600000000000001</v>
       </c>
       <c r="AC10">
-        <v>-0.14699999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0.878</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="C11">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="P11" t="s">
-        <v>14</v>
+      <c r="Q11">
+        <v>0.68700000000000006</v>
       </c>
       <c r="R11">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="T11">
-        <v>-0.109</v>
+        <v>0.126</v>
+      </c>
+      <c r="S11">
+        <v>-0.152</v>
       </c>
       <c r="U11">
-        <v>0.16800000000000001</v>
+        <v>-0.107</v>
       </c>
       <c r="W11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11">
-        <v>0.11700000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="Y11">
-        <v>0.501</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="Z11">
-        <v>-0.17399999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="AA11">
-        <v>0.223</v>
-      </c>
-      <c r="AC11">
-        <v>-0.19400000000000001</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.74099999999999999</v>
       </c>
       <c r="C12">
-        <v>1.0069999999999999</v>
+        <v>-0.104</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>0.35699999999999998</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="G12">
-        <v>0.126</v>
-      </c>
-      <c r="H12">
-        <v>0.13500000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>0.77200000000000002</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>-0.13500000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="N12">
-        <v>0.191</v>
+        <v>0.11</v>
       </c>
       <c r="P12" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>0.40799999999999997</v>
       </c>
       <c r="R12">
-        <v>0.188</v>
-      </c>
-      <c r="T12">
-        <v>0.317</v>
-      </c>
-      <c r="U12">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="V12" t="s">
-        <v>25</v>
+        <v>-0.114</v>
+      </c>
+      <c r="S12">
+        <v>0.128</v>
       </c>
       <c r="W12" t="s">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>0.55500000000000005</v>
+        <v>12</v>
       </c>
       <c r="Y12">
-        <v>0.14499999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="Z12">
-        <v>-0.17599999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="AB12">
-        <v>0.23</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.872</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G13">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.245</v>
+      </c>
+      <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>0.192</v>
-      </c>
-      <c r="G13">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="H13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>0.41</v>
-      </c>
       <c r="L13">
-        <v>0.40500000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="M13">
-        <v>0.311</v>
-      </c>
-      <c r="N13">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="O13" t="s">
-        <v>19</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="P13" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="S13">
-        <v>0.224</v>
-      </c>
-      <c r="U13">
-        <v>-0.17299999999999999</v>
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>0.90200000000000002</v>
       </c>
       <c r="W13" t="s">
-        <v>7</v>
-      </c>
-      <c r="X13">
-        <v>0.85699999999999998</v>
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AC13">
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>0.56499999999999995</v>
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C14">
+        <v>0.105</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>0.188</v>
-      </c>
-      <c r="G14">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="H14">
-        <v>0.122</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>0.49199999999999999</v>
+        <v>14</v>
       </c>
       <c r="L14">
-        <v>-0.107</v>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="M14">
+        <v>-0.11</v>
+      </c>
+      <c r="N14">
+        <v>0.16600000000000001</v>
       </c>
       <c r="P14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R14">
-        <v>0.503</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="S14">
-        <v>-0.17</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="T14">
-        <v>0.21199999999999999</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="U14">
-        <v>-0.21</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="W14" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="Z14">
-        <v>0.111</v>
+        <v>14</v>
+      </c>
+      <c r="Y14">
+        <v>0.94599999999999995</v>
       </c>
       <c r="AA14">
-        <v>-0.107</v>
-      </c>
-      <c r="AB14">
-        <v>-0.13600000000000001</v>
+        <v>-0.114</v>
       </c>
       <c r="AC14">
-        <v>0.13500000000000001</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="L15">
+        <v>0.105</v>
+      </c>
+      <c r="N15">
+        <v>-0.124</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="W15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="C15">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L15">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="P15" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="S15">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="T15">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="W15" t="s">
-        <v>9</v>
-      </c>
       <c r="X15">
-        <v>0.76100000000000001</v>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Z15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA15">
+        <v>0.121</v>
       </c>
       <c r="AB15">
-        <v>0.111</v>
+        <v>-0.153</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="C16">
-        <v>0.27200000000000002</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>-0.13200000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="G16">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K16">
-        <v>0.59399999999999997</v>
+        <v>0.443</v>
       </c>
       <c r="L16">
-        <v>0.105</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N16">
-        <v>-0.124</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="P16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q16">
-        <v>0.83099999999999996</v>
+        <v>0.248</v>
+      </c>
+      <c r="S16">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="T16">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="U16">
+        <v>0.111</v>
+      </c>
+      <c r="V16" t="s">
+        <v>25</v>
       </c>
       <c r="W16" t="s">
-        <v>15</v>
-      </c>
-      <c r="X16">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="Z16">
-        <v>0.28999999999999998</v>
+        <v>16</v>
       </c>
       <c r="AA16">
-        <v>0.121</v>
-      </c>
-      <c r="AB16">
-        <v>-0.153</v>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="AC16">
+        <v>0.128</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.45">
@@ -2164,33 +3405,45 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
+  <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1" dxfId="38"/>
+      <sortCondition sortBy="cellColor" ref="U1:U16" dxfId="1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="Q2:U16">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:AC16">
+    <cfRule type="cellIs" dxfId="108" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="7" operator="greaterThan">
+      <formula>0.499</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="cellIs" dxfId="107" priority="6" operator="greaterThan">
+      <formula>0.499</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="greaterThan">
+      <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K2:N16">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="greaterThan">
+      <formula>0.499</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2201,11 +3454,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2214,7 +3465,7 @@
     <col min="12" max="12" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>17</v>
       </c>
@@ -2252,48 +3503,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.70799999999999996</v>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0.26500000000000001</v>
       </c>
       <c r="D2">
-        <v>-0.11799999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0.17799999999999999</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="I2">
-        <v>0.33900000000000002</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J2">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>0.504</v>
-      </c>
-      <c r="P2">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>-0.378</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2319,39 +3558,51 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.20100000000000001</v>
       </c>
       <c r="C4">
-        <v>0.58199999999999996</v>
+        <v>-0.2</v>
       </c>
       <c r="D4">
-        <v>0.13100000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0.188</v>
+      </c>
+      <c r="H4">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="I4">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L4" t="s">
         <v>6</v>
       </c>
-      <c r="I4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
       <c r="M4">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="N4">
-        <v>-0.182</v>
+        <v>0.157</v>
       </c>
       <c r="O4">
-        <v>0.53600000000000003</v>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.151</v>
       </c>
       <c r="Q4">
-        <v>-0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2364,9 +3615,6 @@
       <c r="D5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -2398,271 +3646,262 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>0.114</v>
+      </c>
+      <c r="J6">
+        <v>-0.217</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>0.74</v>
+      </c>
+      <c r="Q6">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.109</v>
+      </c>
+      <c r="C7">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>0.85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J8">
+        <v>0.105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-0.2</v>
-      </c>
-      <c r="D6">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M9">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N9">
+        <v>-0.182</v>
+      </c>
+      <c r="O9">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>-0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.875</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.158</v>
+      </c>
+      <c r="Q10">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>0.106</v>
+      </c>
+      <c r="H11">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J11">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="P11">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>-0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>0.745</v>
+      </c>
+      <c r="P12">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>0.188</v>
-      </c>
-      <c r="H6">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="I6">
-        <v>-0.20300000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>0.157</v>
-      </c>
-      <c r="O6">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="P6">
-        <v>0.151</v>
-      </c>
-      <c r="Q6">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.36</v>
-      </c>
-      <c r="C7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>0.106</v>
-      </c>
-      <c r="H7">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="I7">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J7">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="B13">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="N7">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="P7">
-        <v>-0.16700000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>-0.26300000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.109</v>
-      </c>
-      <c r="C8">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>0.85</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.91</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G13">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I13">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="H9">
-        <v>0.75</v>
-      </c>
-      <c r="I9">
-        <v>0.114</v>
-      </c>
-      <c r="J9">
-        <v>-0.217</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>0.74</v>
-      </c>
-      <c r="Q9">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="J10">
-        <v>0.105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B14">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D14">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L14" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I11">
-        <v>-0.24099999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I12">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="J12">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="L12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>0.745</v>
-      </c>
-      <c r="P13">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>0.875</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
       <c r="M14">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="N14">
-        <v>0.158</v>
+        <v>0.504</v>
+      </c>
+      <c r="P14">
+        <v>0.14799999999999999</v>
       </c>
       <c r="Q14">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+        <v>-0.378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -2844,25 +4083,31 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="117"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="M2:Q14">
+    <cfRule type="cellIs" dxfId="169" priority="6" operator="lessThan">
+      <formula>-0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="4" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="3" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="greaterThan">
       <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
-      <formula>-0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2874,9 +4119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3305,21 +4548,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="32"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="181"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3329,12 +4572,447 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.9296875" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>-0.114</v>
+      </c>
+      <c r="C3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.317</v>
+      </c>
+      <c r="D6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.223</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E9">
+        <v>-0.193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.624</v>
+      </c>
+      <c r="D12">
+        <v>-0.224</v>
+      </c>
+      <c r="E12">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>-0.01</v>
+      </c>
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+      <c r="D17">
+        <v>0.27</v>
+      </c>
+      <c r="E17">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.12</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>-0.03</v>
+      </c>
+      <c r="E18">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.11</v>
+      </c>
+      <c r="C19">
+        <v>-0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.36</v>
+      </c>
+      <c r="E19">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>0.01</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20">
+        <v>0.7</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>0.37</v>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
+      </c>
+      <c r="E21">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>-0.02</v>
+      </c>
+      <c r="C22">
+        <v>0.71</v>
+      </c>
+      <c r="D22">
+        <v>-0.03</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>0.47</v>
+      </c>
+      <c r="D23">
+        <v>0.11</v>
+      </c>
+      <c r="E23">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0.63</v>
+      </c>
+      <c r="C24">
+        <v>-0.03</v>
+      </c>
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0.31</v>
+      </c>
+      <c r="C25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.03</v>
+      </c>
+      <c r="E25">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.63</v>
+      </c>
+      <c r="C26">
+        <v>0.04</v>
+      </c>
+      <c r="D26">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.36</v>
+      </c>
+      <c r="C27">
+        <v>0.03</v>
+      </c>
+      <c r="D27">
+        <v>-0.08</v>
+      </c>
+      <c r="E27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
+      </c>
+      <c r="C28">
+        <v>0.24</v>
+      </c>
+      <c r="D28">
+        <v>0.04</v>
+      </c>
+      <c r="E28">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0.04</v>
+      </c>
+      <c r="C29">
+        <v>0.26</v>
+      </c>
+      <c r="D29">
+        <v>0.04</v>
+      </c>
+      <c r="E29">
+        <v>-0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="177"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:E14">
+    <cfRule type="cellIs" dxfId="176" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:E29">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FEE297-2283-4876-8A50-4A8E8DF46A81}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3545,11 +5223,11 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{20237AFA-AF5A-4959-9459-F55DA7A9A145}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="28"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="174"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E12">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3557,13 +5235,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3809,16 +5485,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="10"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="172"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B0FDBF-D918-4467-AE15-C0ADE9B8CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8CA316-B208-4423-9B00-4DFCD1BEE96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
+    <sheet name="All CAMs rotation comparisons" sheetId="7" r:id="rId2"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" r:id="rId3"/>
+    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId4"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId5"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet5!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet6!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All CAMs rotation comparisons'!$N$1:$Q$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Numeric!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,6 +47,60 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={47AC028E-CB7A-47F7-9352-0CD18B9CF11D}</author>
+    <author>tc={DB44D446-E5BA-4494-881B-A3A0DA5D608C}</author>
+    <author>tc={A97113B4-F367-4C2B-8A94-DB864EFF74E6}</author>
+    <author>tc={711727C3-1319-4CF5-ADB3-56CF05FBEC16}</author>
+    <author>tc={AF829918-3431-40D2-AA62-05EC558A21CE}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{47AC028E-CB7A-47F7-9352-0CD18B9CF11D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All vars with varimax rotation</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{DB44D446-E5BA-4494-881B-A3A0DA5D608C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All vars oblique rotation (oblimin)</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{A97113B4-F367-4C2B-8A94-DB864EFF74E6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All CAMs, oblimin rotation</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="3" shapeId="0" xr:uid="{711727C3-1319-4CF5-ADB3-56CF05FBEC16}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All CAMs, varimax rotation</t>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="4" shapeId="0" xr:uid="{AF829918-3431-40D2-AA62-05EC558A21CE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All CAMs, promax rotation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -81,7 +135,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -141,7 +195,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -201,7 +255,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -237,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="26">
   <si>
     <t>ML2</t>
   </si>
@@ -321,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +395,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,7 +430,197 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="143">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -436,6 +686,186 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -500,6 +930,456 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -564,6 +1444,106 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -580,6 +1560,116 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -588,6 +1678,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -596,6 +1706,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -604,1302 +1744,62 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1914,6 +1814,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hannah Andrews" id="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" userId="c2d211bb542e6e92" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2211,12 +2117,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-06-08T21:00:27.95" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{47AC028E-CB7A-47F7-9352-0CD18B9CF11D}">
+    <text>All vars with varimax rotation</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2021-06-08T21:02:29.86" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{DB44D446-E5BA-4494-881B-A3A0DA5D608C}">
+    <text>All vars oblique rotation (oblimin)</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2021-06-08T21:12:13.03" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{A97113B4-F367-4C2B-8A94-DB864EFF74E6}">
+    <text>All CAMs, oblimin rotation</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2021-06-08T21:12:23.05" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{711727C3-1319-4CF5-ADB3-56CF05FBEC16}">
+    <text>All CAMs, varimax rotation</text>
+  </threadedComment>
+  <threadedComment ref="S1" dT="2021-06-08T21:14:23.49" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{AF829918-3431-40D2-AA62-05EC558A21CE}">
+    <text>All CAMs, promax rotation</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A59E54-D4A7-4C25-9D11-CD018EBC24D4}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2293,217 +2219,232 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0.878</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G2">
+      <c r="L2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="R2">
         <v>0.126</v>
       </c>
-      <c r="H2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="M2">
-        <v>-0.13500000000000001</v>
-      </c>
-      <c r="N2">
+      <c r="S2">
+        <v>-0.152</v>
+      </c>
+      <c r="U2">
+        <v>-0.107</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2">
+        <v>0.108</v>
+      </c>
+      <c r="Y2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Z2">
+        <v>0.125</v>
+      </c>
+      <c r="AA2">
         <v>0.191</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2">
-        <v>0.188</v>
-      </c>
-      <c r="T2">
-        <v>0.317</v>
-      </c>
-      <c r="U2">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="Y2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Z2">
-        <v>-0.17599999999999999</v>
-      </c>
-      <c r="AB2">
-        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>0.192</v>
+      </c>
+      <c r="G3">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>0.41</v>
+      </c>
+      <c r="L3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="M3">
+        <v>0.311</v>
+      </c>
+      <c r="N3">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="C3">
-        <v>-0.106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G3">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="N3">
-        <v>-0.16400000000000001</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>0.35099999999999998</v>
-      </c>
       <c r="R3">
-        <v>0.36899999999999999</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="S3">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.32400000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="U3">
-        <v>-0.13200000000000001</v>
-      </c>
-      <c r="V3" t="s">
-        <v>25</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="W3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="Z3">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AC3">
-        <v>-0.14699999999999999</v>
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.80400000000000005</v>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="C4">
+        <v>-0.104</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>0.871</v>
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.17</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>0.39200000000000002</v>
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>0.96</v>
       </c>
       <c r="N4">
-        <v>0.11899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="U4">
-        <v>0.106</v>
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="R4">
+        <v>-0.114</v>
+      </c>
+      <c r="S4">
+        <v>0.128</v>
       </c>
       <c r="W4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="Y4">
-        <v>-0.12</v>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.27800000000000002</v>
       </c>
       <c r="AB4">
-        <v>0.67200000000000004</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.185</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="C5">
-        <v>0.64800000000000002</v>
+        <v>-0.106</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>0.998</v>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.50900000000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>0.88600000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="N5">
+        <v>-0.16400000000000001</v>
       </c>
       <c r="P5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>0.27500000000000002</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="R5">
-        <v>0.20699999999999999</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="S5">
-        <v>0.35</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="T5">
-        <v>0.10299999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="U5">
-        <v>-0.15</v>
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>0.57799999999999996</v>
       </c>
       <c r="Z5">
-        <v>0.96099999999999997</v>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>-0.14699999999999999</v>
       </c>
       <c r="AD5" t="s">
         <v>25</v>
@@ -2564,438 +2505,423 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="C7">
-        <v>-0.13100000000000001</v>
+        <v>0.872</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0.67900000000000005</v>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.245</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>0.85899999999999999</v>
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.16300000000000001</v>
       </c>
       <c r="P7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="T7">
-        <v>-0.109</v>
-      </c>
-      <c r="U7">
-        <v>0.16800000000000001</v>
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>0.90200000000000002</v>
       </c>
       <c r="W7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7">
-        <v>0.11700000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y7">
-        <v>0.501</v>
-      </c>
-      <c r="Z7">
-        <v>-0.17399999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.223</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="AC7">
-        <v>-0.19400000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.41499999999999998</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="C8">
-        <v>0.17399999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="L8">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="L8">
-        <v>0.20300000000000001</v>
+      <c r="M8">
+        <v>-0.11</v>
+      </c>
+      <c r="N8">
+        <v>0.16600000000000001</v>
       </c>
       <c r="P8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8">
-        <v>0.71599999999999997</v>
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>0.70299999999999996</v>
       </c>
       <c r="S8">
-        <v>0.11600000000000001</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="T8">
-        <v>0.17299999999999999</v>
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.19800000000000001</v>
       </c>
       <c r="W8" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="AB8">
-        <v>0.111</v>
+        <v>14</v>
+      </c>
+      <c r="Y8">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>-0.114</v>
+      </c>
+      <c r="AC8">
+        <v>0.193</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.72799999999999998</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.14000000000000001</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>0.192</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G9">
-        <v>0.65800000000000003</v>
+        <v>0.126</v>
       </c>
       <c r="H9">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>0.41</v>
-      </c>
-      <c r="L9">
-        <v>0.40500000000000003</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="M9">
-        <v>0.311</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="N9">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
+        <v>0.191</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R9">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="S9">
-        <v>0.224</v>
+        <v>0.188</v>
+      </c>
+      <c r="T9">
+        <v>0.317</v>
       </c>
       <c r="U9">
-        <v>-0.17299999999999999</v>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="V9" t="s">
+        <v>25</v>
       </c>
       <c r="W9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>0.85699999999999998</v>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Y9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="Z9">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.56499999999999995</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>0.188</v>
-      </c>
-      <c r="G10">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="H10">
-        <v>0.122</v>
+        <v>0.871</v>
       </c>
       <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="N10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="U10">
+        <v>0.106</v>
+      </c>
+      <c r="W10" t="s">
         <v>4</v>
       </c>
-      <c r="K10">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="L10">
-        <v>-0.107</v>
-      </c>
-      <c r="P10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R10">
-        <v>0.503</v>
-      </c>
-      <c r="S10">
-        <v>-0.17</v>
-      </c>
-      <c r="T10">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="U10">
-        <v>-0.21</v>
-      </c>
-      <c r="W10" t="s">
-        <v>8</v>
-      </c>
       <c r="X10">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="Z10">
-        <v>0.111</v>
-      </c>
-      <c r="AA10">
-        <v>-0.107</v>
+        <v>0.1</v>
+      </c>
+      <c r="Y10">
+        <v>-0.12</v>
       </c>
       <c r="AB10">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>0.13500000000000001</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.185</v>
+      </c>
+      <c r="C11">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0.998</v>
+      </c>
+      <c r="J11" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>0.81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>0.878</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="M11">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.72899999999999998</v>
+      <c r="K11">
+        <v>0.88600000000000001</v>
       </c>
       <c r="P11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q11">
-        <v>0.68700000000000006</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="R11">
-        <v>0.126</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="S11">
-        <v>-0.152</v>
+        <v>0.35</v>
+      </c>
+      <c r="T11">
+        <v>0.10299999999999999</v>
       </c>
       <c r="U11">
-        <v>-0.107</v>
+        <v>-0.15</v>
       </c>
       <c r="W11" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11">
-        <v>0.108</v>
-      </c>
-      <c r="Y11">
-        <v>0.70399999999999996</v>
+        <v>6</v>
       </c>
       <c r="Z11">
-        <v>0.125</v>
-      </c>
-      <c r="AA11">
-        <v>0.191</v>
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0.74099999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="C12">
-        <v>-0.104</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="G12">
-        <v>0.17</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12">
-        <v>0.96</v>
-      </c>
-      <c r="N12">
-        <v>0.11</v>
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>0.85899999999999999</v>
       </c>
       <c r="P12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <v>0.40799999999999997</v>
+        <v>14</v>
       </c>
       <c r="R12">
-        <v>-0.114</v>
-      </c>
-      <c r="S12">
-        <v>0.128</v>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="T12">
+        <v>-0.109</v>
+      </c>
+      <c r="U12">
+        <v>0.16800000000000001</v>
       </c>
       <c r="W12" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>0.11700000000000001</v>
       </c>
       <c r="Y12">
-        <v>0.20100000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="Z12">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="AB12">
-        <v>0.53200000000000003</v>
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="AA12">
+        <v>0.223</v>
+      </c>
+      <c r="AC12">
+        <v>-0.19400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.872</v>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.17399999999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>0.54800000000000004</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H13">
-        <v>0.245</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="L13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="P13" t="s">
         <v>11</v>
       </c>
-      <c r="L13">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="M13">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="P13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <v>0.90200000000000002</v>
+      <c r="R13">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="S13">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.17299999999999999</v>
       </c>
       <c r="W13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="AA13">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="AC13">
-        <v>0.75800000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="X13">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.111</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0.188</v>
+      </c>
+      <c r="G14">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="L14">
+        <v>-0.107</v>
+      </c>
+      <c r="P14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.503</v>
+      </c>
+      <c r="S14">
+        <v>-0.17</v>
+      </c>
+      <c r="T14">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="U14">
+        <v>-0.21</v>
+      </c>
+      <c r="W14" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="C14">
-        <v>0.105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="M14">
-        <v>-0.11</v>
-      </c>
-      <c r="N14">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="P14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="S14">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="T14">
-        <v>-0.13200000000000001</v>
-      </c>
-      <c r="U14">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="W14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y14">
-        <v>0.94599999999999995</v>
+      <c r="X14">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="Z14">
+        <v>0.111</v>
       </c>
       <c r="AA14">
-        <v>-0.114</v>
+        <v>-0.107</v>
+      </c>
+      <c r="AB14">
+        <v>-0.13600000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.193</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
@@ -3407,43 +3333,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="U1:U16" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="117"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="16" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="108" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="15" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="93" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="11" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="9" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="104" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3453,10 +3379,1028 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39412BF1-7058-497E-BBA1-3DAA310B3CD4}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.628</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0.628</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0.41</v>
+      </c>
+      <c r="I3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.311</v>
+      </c>
+      <c r="K3">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="O3">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="P3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0.96</v>
+      </c>
+      <c r="K4">
+        <v>0.11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0.191</v>
+      </c>
+      <c r="O4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.874</v>
+      </c>
+      <c r="Q4">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>-0.13</v>
+      </c>
+      <c r="U4">
+        <v>0.999</v>
+      </c>
+      <c r="V4">
+        <v>0.316</v>
+      </c>
+      <c r="W4">
+        <v>-0.216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="K5">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.435</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="U5">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0.505</v>
+      </c>
+      <c r="J6">
+        <v>0.223</v>
+      </c>
+      <c r="K6">
+        <v>-0.22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.33</v>
+      </c>
+      <c r="P6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U6">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.317</v>
+      </c>
+      <c r="P7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J8">
+        <v>-0.11</v>
+      </c>
+      <c r="K8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="O8">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.155</v>
+      </c>
+      <c r="S8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="V8">
+        <v>-0.11</v>
+      </c>
+      <c r="W8">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="J9">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.191</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>0.505</v>
+      </c>
+      <c r="O9">
+        <v>0.435</v>
+      </c>
+      <c r="Q9">
+        <v>0.129</v>
+      </c>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="V9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.753</v>
+      </c>
+      <c r="P10">
+        <v>0.24</v>
+      </c>
+      <c r="Q10">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="S10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="U10">
+        <v>0.151</v>
+      </c>
+      <c r="V10">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>0.219</v>
+      </c>
+      <c r="O12">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="Q12">
+        <v>0.21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>0.441</v>
+      </c>
+      <c r="U12">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O13">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I14">
+        <v>-0.107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="S14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="U14">
+        <v>-0.112</v>
+      </c>
+      <c r="V14">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="W14">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="I15">
+        <v>0.105</v>
+      </c>
+      <c r="K15">
+        <v>-0.124</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="O15">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="P15">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>0.443</v>
+      </c>
+      <c r="I16">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="K16">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="O16">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.23</v>
+      </c>
+      <c r="Q16">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="V16">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>6.6929999999999996</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>6.6929999999999996</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>3.47</v>
+      </c>
+      <c r="I19">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="J19">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="O19">
+        <v>3.109</v>
+      </c>
+      <c r="P19">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>1.24</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19">
+        <v>3.39</v>
+      </c>
+      <c r="U19">
+        <v>2.968</v>
+      </c>
+      <c r="V19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W19">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="J20">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K20">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="P20">
+        <v>0.09</v>
+      </c>
+      <c r="Q20">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="U20">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="V20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J21">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="Q21">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="S21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="U21">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="V21">
+        <v>0.499</v>
+      </c>
+      <c r="W21">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="N1:Q16" xr:uid="{39412BF1-7058-497E-BBA1-3DAA310B3CD4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:Q16">
+      <sortCondition sortBy="cellColor" ref="Q1:Q16" dxfId="20"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E16">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:K16">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>0.499</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:P4 N2 P2 N3:O3 N6:Q6 N5:O5 Q5 N10:Q12 N7:N8 P7:Q8 O9:Q9 N14:Q16 N13 P13:Q13">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:W16 T2:V2 T3:U4 W3:W4">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:Q16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A20" sqref="A3:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4083,30 +5027,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="117"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="116"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="169" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="167" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="164" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4115,11 +5059,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4548,21 +5494,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="181"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="136"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="180" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="179" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="178" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4571,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -4990,248 +5936,21 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="177"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="132"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="176" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FEE297-2283-4876-8A50-4A8E8DF46A81}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>-0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>0.25</v>
-      </c>
-      <c r="E2">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0.06</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>-0.05</v>
-      </c>
-      <c r="E3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.11</v>
-      </c>
-      <c r="C4">
-        <v>-0.08</v>
-      </c>
-      <c r="D4">
-        <v>0.33</v>
-      </c>
-      <c r="E4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.75</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.33</v>
-      </c>
-      <c r="C6">
-        <v>0.04</v>
-      </c>
-      <c r="D6">
-        <v>0.02</v>
-      </c>
-      <c r="E6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-      <c r="C7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.65</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.02</v>
-      </c>
-      <c r="E8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.33</v>
-      </c>
-      <c r="C9">
-        <v>0.03</v>
-      </c>
-      <c r="D9">
-        <v>-0.08</v>
-      </c>
-      <c r="E9">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.63</v>
-      </c>
-      <c r="C10">
-        <v>-0.03</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>-0.01</v>
-      </c>
-      <c r="C11">
-        <v>0.81</v>
-      </c>
-      <c r="D11">
-        <v>-0.01</v>
-      </c>
-      <c r="E11">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C12">
-        <v>0.37</v>
-      </c>
-      <c r="D12">
-        <v>0.13</v>
-      </c>
-      <c r="E12">
-        <v>0.17</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{20237AFA-AF5A-4959-9459-F55DA7A9A145}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H12">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="174"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:E12">
-    <cfRule type="cellIs" dxfId="173" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5485,16 +6204,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="172"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="129"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="171" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="170" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,25 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8CA316-B208-4423-9B00-4DFCD1BEE96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBECE8-ACE1-4012-AA7A-6110DEF6A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
-    <sheet name="All CAMs rotation comparisons" sheetId="7" r:id="rId2"/>
-    <sheet name="Drop prayer and spirit" sheetId="2" r:id="rId3"/>
-    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId4"/>
-    <sheet name="Comparing MPM" sheetId="6" r:id="rId5"/>
-    <sheet name="Numeric" sheetId="5" r:id="rId6"/>
+    <sheet name="All ml rotation comparisons" sheetId="7" r:id="rId2"/>
+    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId3"/>
+    <sheet name="PCA" sheetId="8" r:id="rId4"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" r:id="rId5"/>
+    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId6"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId7"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All CAMs rotation comparisons'!$N$1:$Q$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All ml rotation comparisons'!$Z$1:$AB$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PCA!$B$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,6 +58,7 @@
     <author>tc={A97113B4-F367-4C2B-8A94-DB864EFF74E6}</author>
     <author>tc={711727C3-1319-4CF5-ADB3-56CF05FBEC16}</author>
     <author>tc={AF829918-3431-40D2-AA62-05EC558A21CE}</author>
+    <author>tc={E5503793-8E22-4959-AFFA-CEEDA9328B3C}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{47AC028E-CB7A-47F7-9352-0CD18B9CF11D}">
@@ -96,11 +101,55 @@
     All CAMs, promax rotation</t>
       </text>
     </comment>
+    <comment ref="Y1" authorId="5" shapeId="0" xr:uid="{E5503793-8E22-4959-AFFA-CEEDA9328B3C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All CAMs, maximum likelihood, promax</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All CAMs, principal axis factoring (pa) with promax rotation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Principal Components with Varimax Rotation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -135,7 +184,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -195,7 +244,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -255,7 +304,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -291,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="36">
   <si>
     <t>ML2</t>
   </si>
@@ -370,6 +419,36 @@
   <si>
     <t xml:space="preserve">bad </t>
   </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t>RC1</t>
+  </si>
+  <si>
+    <t>RC2</t>
+  </si>
+  <si>
+    <t>RC3</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>Proportion Explained</t>
+  </si>
+  <si>
+    <t>Cumulative Proportion</t>
+  </si>
 </sst>
 </file>
 
@@ -430,7 +509,71 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="82">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -462,6 +605,118 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -622,6 +877,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -706,6 +1011,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -726,6 +1039,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -756,6 +1077,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -816,6 +1145,22 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -866,940 +1211,50 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2134,6 +1589,25 @@
   <threadedComment ref="S1" dT="2021-06-08T21:14:23.49" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{AF829918-3431-40D2-AA62-05EC558A21CE}">
     <text>All CAMs, promax rotation</text>
   </threadedComment>
+  <threadedComment ref="Y1" dT="2021-06-09T21:30:53.91" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{E5503793-8E22-4959-AFFA-CEEDA9328B3C}">
+    <text>All CAMs, maximum likelihood, promax</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-06-09T21:16:27.69" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}">
+    <text>All CAMs, principal axis factoring (pa) with promax rotation</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-06-09T18:37:26.45" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}">
+    <text>Principal Components with Varimax Rotation</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2141,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A59E54-D4A7-4C25-9D11-CD018EBC24D4}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3333,43 +2807,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="117"/>
+      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="81"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="126" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="16" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="125" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="15" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="124" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="122" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3380,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39412BF1-7058-497E-BBA1-3DAA310B3CD4}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3394,9 +2868,10 @@
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="9.06640625" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3439,8 +2914,17 @@
       <c r="W1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Z1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3489,8 +2973,20 @@
       <c r="W2">
         <v>0.317</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>-0.22</v>
+      </c>
+      <c r="AA2">
+        <v>0.379</v>
+      </c>
+      <c r="AB2">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3038,17 @@
       <c r="W3">
         <v>0.90700000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>-0.28699999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3595,8 +3100,20 @@
       <c r="W4">
         <v>-0.216</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>0.623</v>
+      </c>
+      <c r="AB4">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3642,8 +3159,20 @@
       <c r="W5">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>0.113</v>
+      </c>
+      <c r="AA5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3689,8 +3218,17 @@
       <c r="U6">
         <v>0.33200000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>0.76</v>
+      </c>
+      <c r="AB6">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3733,8 +3271,20 @@
       <c r="U7">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3786,8 +3336,14 @@
       <c r="W8">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3833,8 +3389,17 @@
       <c r="V9">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AA9">
+        <v>-0.157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3883,8 +3448,20 @@
       <c r="V10">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AA10">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AB10">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3918,8 +3495,17 @@
       <c r="T11">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3959,8 +3545,14 @@
       <c r="U12">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4000,8 +3592,14 @@
       <c r="T13">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4044,8 +3642,14 @@
       <c r="W14">
         <v>-0.125</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -4088,8 +3692,17 @@
       <c r="T15">
         <v>0.86099999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15">
+        <v>0.51</v>
+      </c>
+      <c r="AA15">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4138,8 +3751,20 @@
       <c r="V16">
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z16">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AB16">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -4183,8 +3808,17 @@
       <c r="W18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Z18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4242,8 +3876,20 @@
       <c r="W19">
         <v>1.079</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="AB19">
+        <v>1.8240000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4301,8 +3947,20 @@
       <c r="W20">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AA20">
+        <v>0.2</v>
+      </c>
+      <c r="AB20">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="G21" t="s">
         <v>24</v>
       </c>
@@ -4348,43 +4006,60 @@
       <c r="W21">
         <v>0.56999999999999995</v>
       </c>
+      <c r="Y21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z21">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AA21">
+        <v>0.436</v>
+      </c>
+      <c r="AB21">
+        <v>0.55800000000000005</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="N1:Q16" xr:uid="{39412BF1-7058-497E-BBA1-3DAA310B3CD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:Q16">
-      <sortCondition sortBy="cellColor" ref="Q1:Q16" dxfId="20"/>
+  <autoFilter ref="Z1:AB16" xr:uid="{39412BF1-7058-497E-BBA1-3DAA310B3CD4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z2:AB16">
+      <sortCondition sortBy="cellColor" ref="AB1:AB16" dxfId="20"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:P4 N2 P2 N3:O3 N6:Q6 N5:O5 Q5 N10:Q12 N7:N8 P7:Q8 O9:Q9 N14:Q16 N13 P13:Q13">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:W16 T2:V2 T3:U4 W3:W4">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:AB16">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4395,6 +4070,935 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-0.02</v>
+      </c>
+      <c r="C2">
+        <v>0.51</v>
+      </c>
+      <c r="D2">
+        <v>-0.16</v>
+      </c>
+      <c r="E2">
+        <v>0.39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.39</v>
+      </c>
+      <c r="C3">
+        <v>0.18</v>
+      </c>
+      <c r="D3">
+        <v>-0.12</v>
+      </c>
+      <c r="E3">
+        <v>0.35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>-0.05</v>
+      </c>
+      <c r="E4">
+        <v>0.81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0.157</v>
+      </c>
+      <c r="J4">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K4">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.18</v>
+      </c>
+      <c r="C5">
+        <v>-0.04</v>
+      </c>
+      <c r="D5">
+        <v>0.26</v>
+      </c>
+      <c r="E5">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.495</v>
+      </c>
+      <c r="J5">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.09</v>
+      </c>
+      <c r="D6">
+        <v>0.92</v>
+      </c>
+      <c r="E6">
+        <v>0.06</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="J6">
+        <v>-0.153</v>
+      </c>
+      <c r="K6">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>-0.17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="K7">
+        <v>-0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.35</v>
+      </c>
+      <c r="C8">
+        <v>0.45</v>
+      </c>
+      <c r="D8">
+        <v>0.17</v>
+      </c>
+      <c r="E8">
+        <v>0.12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="J8">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.26</v>
+      </c>
+      <c r="C9">
+        <v>0.54</v>
+      </c>
+      <c r="D9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E9">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-0.06</v>
+      </c>
+      <c r="C10">
+        <v>0.71</v>
+      </c>
+      <c r="D10">
+        <v>0.17</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0.66</v>
+      </c>
+      <c r="I10">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J10">
+        <v>-0.123</v>
+      </c>
+      <c r="K10">
+        <v>-0.221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>-0.17</v>
+      </c>
+      <c r="C11">
+        <v>0.81</v>
+      </c>
+      <c r="D11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J11">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.71</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
+      </c>
+      <c r="D12">
+        <v>-0.09</v>
+      </c>
+      <c r="E12">
+        <v>-0.2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.48</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.08</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J13">
+        <v>0.184</v>
+      </c>
+      <c r="K13">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.82</v>
+      </c>
+      <c r="C14">
+        <v>-0.02</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.46</v>
+      </c>
+      <c r="C15">
+        <v>-0.12</v>
+      </c>
+      <c r="D15">
+        <v>0.18</v>
+      </c>
+      <c r="E15">
+        <v>0.24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J15">
+        <v>-0.107</v>
+      </c>
+      <c r="K15">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.81</v>
+      </c>
+      <c r="C16">
+        <v>-0.1</v>
+      </c>
+      <c r="D16">
+        <v>0.09</v>
+      </c>
+      <c r="E16">
+        <v>0.13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="J16">
+        <v>0.26</v>
+      </c>
+      <c r="K16">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2.54</v>
+      </c>
+      <c r="D19">
+        <v>1.92</v>
+      </c>
+      <c r="E19">
+        <v>1.73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>3.01</v>
+      </c>
+      <c r="I19">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="J19">
+        <v>1.51</v>
+      </c>
+      <c r="K19">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.17</v>
+      </c>
+      <c r="D20">
+        <v>0.13</v>
+      </c>
+      <c r="E20">
+        <v>0.12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K20">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.37</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.37</v>
+      </c>
+      <c r="J21">
+        <v>0.47</v>
+      </c>
+      <c r="K21">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>0.33</v>
+      </c>
+      <c r="C22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.21</v>
+      </c>
+      <c r="E22">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>0.33</v>
+      </c>
+      <c r="C23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>0.81</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:E16">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:K16">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.21</v>
+      </c>
+      <c r="C2">
+        <v>0.62</v>
+      </c>
+      <c r="D2">
+        <v>0.31</v>
+      </c>
+      <c r="E2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.23</v>
+      </c>
+      <c r="C3">
+        <v>0.59</v>
+      </c>
+      <c r="D3">
+        <v>0.24</v>
+      </c>
+      <c r="E3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.63</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>-0.04</v>
+      </c>
+      <c r="E4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.12</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.22</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>0.27</v>
+      </c>
+      <c r="E6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.52</v>
+      </c>
+      <c r="D7">
+        <v>0.52</v>
+      </c>
+      <c r="E7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8">
+        <v>0.26</v>
+      </c>
+      <c r="D8">
+        <v>0.51</v>
+      </c>
+      <c r="E8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.17</v>
+      </c>
+      <c r="C9">
+        <v>-0.04</v>
+      </c>
+      <c r="D9">
+        <v>0.78</v>
+      </c>
+      <c r="E9">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.06</v>
+      </c>
+      <c r="C10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.81</v>
+      </c>
+      <c r="E10">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.72</v>
+      </c>
+      <c r="D11">
+        <v>0.23</v>
+      </c>
+      <c r="E11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.11</v>
+      </c>
+      <c r="C12">
+        <v>0.71</v>
+      </c>
+      <c r="D12">
+        <v>-0.1</v>
+      </c>
+      <c r="E12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.49</v>
+      </c>
+      <c r="C13">
+        <v>0.54</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.82</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <v>0.05</v>
+      </c>
+      <c r="E14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.53</v>
+      </c>
+      <c r="C15">
+        <v>0.48</v>
+      </c>
+      <c r="D15">
+        <v>0.47</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.72</v>
+      </c>
+      <c r="C16">
+        <v>0.22</v>
+      </c>
+      <c r="D16">
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="47"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:E16">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+      <formula>0.699</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -5027,30 +5631,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="116"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="70"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="142" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="140" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="138" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5059,7 +5663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -5494,21 +6098,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="136"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="63"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="135" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="133" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5517,7 +6121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -5936,16 +6540,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="132"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="59"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="130" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5954,7 +6558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -6204,16 +6808,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="129"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="56"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="128" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="127" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBECE8-ACE1-4012-AA7A-6110DEF6A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D0275-8DFC-4A0C-B2BB-D31100F54ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
-    <sheet name="All ml rotation comparisons" sheetId="7" r:id="rId2"/>
+    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId2"/>
     <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId3"/>
     <sheet name="PCA" sheetId="8" r:id="rId4"/>
     <sheet name="Drop prayer and spirit" sheetId="2" r:id="rId5"/>
@@ -24,8 +24,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All ml rotation comparisons'!$Z$1:$AB$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Drop energy, pray, spirit'!$A$15:$S$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Numeric!$A$1:$J$1</definedName>
@@ -53,60 +53,100 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={47AC028E-CB7A-47F7-9352-0CD18B9CF11D}</author>
-    <author>tc={DB44D446-E5BA-4494-881B-A3A0DA5D608C}</author>
-    <author>tc={A97113B4-F367-4C2B-8A94-DB864EFF74E6}</author>
-    <author>tc={711727C3-1319-4CF5-ADB3-56CF05FBEC16}</author>
-    <author>tc={AF829918-3431-40D2-AA62-05EC558A21CE}</author>
-    <author>tc={E5503793-8E22-4959-AFFA-CEEDA9328B3C}</author>
+    <author>tc={05F861C7-3F05-45BE-A842-A70399D00986}</author>
+    <author>tc={15ED4DD3-15BC-4E0F-AD77-76216B25453F}</author>
+    <author>hanna</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{47AC028E-CB7A-47F7-9352-0CD18B9CF11D}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{05F861C7-3F05-45BE-A842-A70399D00986}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    All vars with varimax rotation</t>
+    Maximum likelihood, varimax</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{DB44D446-E5BA-4494-881B-A3A0DA5D608C}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{15ED4DD3-15BC-4E0F-AD77-76216B25453F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    All vars oblique rotation (oblimin)</t>
+    Maximum Likelihood, Promax</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{A97113B4-F367-4C2B-8A94-DB864EFF74E6}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{18A6050E-C695-43D0-A03E-6E6657D76CB3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    All CAMs, oblimin rotation</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelihood, 
+oblimin</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="3" shapeId="0" xr:uid="{711727C3-1319-4CF5-ADB3-56CF05FBEC16}">
+    <comment ref="P1" authorId="2" shapeId="0" xr:uid="{4B4AE082-A14D-4714-A595-1E92FDAD6FAB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    All CAMs, varimax rotation</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelihood, cluster rotation
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="4" shapeId="0" xr:uid="{AF829918-3431-40D2-AA62-05EC558A21CE}">
+    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{F41A4B08-9370-41CE-9CC4-CC0C2D2A73C7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    All CAMs, promax rotation</t>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="5" shapeId="0" xr:uid="{E5503793-8E22-4959-AFFA-CEEDA9328B3C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    All CAMs, maximum likelihood, promax</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelihood, varimax
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -340,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="36">
   <si>
     <t>ML2</t>
   </si>
@@ -476,10 +516,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,7 +549,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -605,6 +645,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -653,6 +753,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -717,6 +847,54 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -927,6 +1105,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -955,298 +1173,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1574,23 +1500,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2021-06-08T21:00:27.95" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{47AC028E-CB7A-47F7-9352-0CD18B9CF11D}">
-    <text>All vars with varimax rotation</text>
+  <threadedComment ref="A1" dT="2021-06-12T19:29:21.77" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{05F861C7-3F05-45BE-A842-A70399D00986}">
+    <text>Maximum likelihood, varimax</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2021-06-08T21:02:29.86" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{DB44D446-E5BA-4494-881B-A3A0DA5D608C}">
-    <text>All vars oblique rotation (oblimin)</text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2021-06-08T21:12:13.03" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{A97113B4-F367-4C2B-8A94-DB864EFF74E6}">
-    <text>All CAMs, oblimin rotation</text>
-  </threadedComment>
-  <threadedComment ref="M1" dT="2021-06-08T21:12:23.05" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{711727C3-1319-4CF5-ADB3-56CF05FBEC16}">
-    <text>All CAMs, varimax rotation</text>
-  </threadedComment>
-  <threadedComment ref="S1" dT="2021-06-08T21:14:23.49" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{AF829918-3431-40D2-AA62-05EC558A21CE}">
-    <text>All CAMs, promax rotation</text>
-  </threadedComment>
-  <threadedComment ref="Y1" dT="2021-06-09T21:30:53.91" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{E5503793-8E22-4959-AFFA-CEEDA9328B3C}">
-    <text>All CAMs, maximum likelihood, promax</text>
+  <threadedComment ref="F1" dT="2021-06-12T19:33:56.63" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{15ED4DD3-15BC-4E0F-AD77-76216B25453F}">
+    <text>Maximum Likelihood, Promax</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1615,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A59E54-D4A7-4C25-9D11-CD018EBC24D4}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2807,44 +2721,44 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="81"/>
+      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="38"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="80" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="79" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="12" operator="greaterThan">
       <formula>0.499</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="6" operator="greaterThan">
-      <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="76" priority="11" operator="greaterThan">
-      <formula>0.499</formula>
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="greaterThan">
+      <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="8" operator="greaterThan">
-      <formula>0.399</formula>
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="greaterThan">
+      <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="greaterThan">
       <formula>0.499</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2853,1219 +2767,768 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39412BF1-7058-497E-BBA1-3DAA310B3CD4}">
-  <dimension ref="A1:AB21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="25" max="25" width="13.46484375" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="R1" t="s">
         <v>0</v>
       </c>
-      <c r="V1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.628</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0.628</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0.317</v>
+      </c>
+      <c r="H2">
+        <v>0.13600000000000001</v>
       </c>
       <c r="I2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="J2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="K2">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0.16200000000000001</v>
       </c>
       <c r="N2">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="O2">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="P2">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="Q2">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="W2">
-        <v>0.317</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2">
-        <v>-0.22</v>
-      </c>
-      <c r="AA2">
-        <v>0.379</v>
-      </c>
-      <c r="AB2">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>0.41</v>
+        <v>0.192</v>
+      </c>
+      <c r="C3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J3">
-        <v>0.311</v>
-      </c>
-      <c r="K3">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="O3">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="P3">
-        <v>0.13900000000000001</v>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
       </c>
       <c r="Q3">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="W3">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA3">
-        <v>-0.28699999999999998</v>
-      </c>
-      <c r="AB3">
-        <v>1.109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D4" t="s">
+        <v>0.39</v>
+      </c>
+      <c r="D4">
+        <v>0.188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I5">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.505</v>
+      </c>
+      <c r="N5">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S5">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>0.83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>0.161</v>
+      </c>
+      <c r="R6">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="S6">
+        <v>-0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.255</v>
+      </c>
+      <c r="D7">
+        <v>0.246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>0.82</v>
+      </c>
+      <c r="S7">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.308</v>
+      </c>
+      <c r="D8">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="I8">
+        <v>-0.218</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="M8">
+        <v>0.109</v>
+      </c>
+      <c r="N8">
+        <v>-0.158</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8">
+        <v>-0.12</v>
+      </c>
+      <c r="R8">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.501</v>
+      </c>
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>0.96</v>
-      </c>
-      <c r="K4">
-        <v>0.11</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="G9">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H9">
+        <v>-0.156</v>
+      </c>
+      <c r="I9">
+        <v>0.113</v>
+      </c>
+      <c r="K9" t="s">
         <v>4</v>
       </c>
-      <c r="N4">
-        <v>0.191</v>
-      </c>
-      <c r="O4">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="P4">
-        <v>0.874</v>
-      </c>
-      <c r="Q4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="L9">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M9">
+        <v>-0.126</v>
+      </c>
+      <c r="N9">
+        <v>0.124</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="P10" t="s">
         <v>4</v>
       </c>
-      <c r="T4">
-        <v>-0.13</v>
-      </c>
-      <c r="U4">
-        <v>0.999</v>
-      </c>
-      <c r="V4">
-        <v>0.316</v>
-      </c>
-      <c r="W4">
-        <v>-0.216</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="Q10">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R10">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.89</v>
+      </c>
+      <c r="D12">
+        <v>0.254</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>0.875</v>
+      </c>
+      <c r="P12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="S12">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.253</v>
+      </c>
+      <c r="D13">
+        <v>0.35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="M13">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="S13">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.24</v>
+      </c>
+      <c r="D16">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.312</v>
+      </c>
+      <c r="C17">
+        <v>0.498</v>
+      </c>
+      <c r="E17">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.154</v>
+      </c>
+      <c r="E18">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="Z4">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AA4">
-        <v>0.623</v>
-      </c>
-      <c r="AB4">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C20">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.42</v>
+      </c>
+      <c r="D21">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="K5">
-        <v>-0.16400000000000001</v>
-      </c>
-      <c r="M5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="O5">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="P5">
-        <v>0.435</v>
-      </c>
-      <c r="S5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="U5">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="W5">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5">
-        <v>0.113</v>
-      </c>
-      <c r="AA5">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="AB5">
+      <c r="B22">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.153</v>
+      </c>
+      <c r="D22">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>0.214</v>
+      </c>
+      <c r="C23">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>0.754</v>
+      </c>
+      <c r="C24">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D24">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E24">
         <v>0.107</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>0.219</v>
+      </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
+      <c r="D25">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>0.505</v>
-      </c>
-      <c r="J6">
-        <v>0.223</v>
-      </c>
-      <c r="K6">
-        <v>-0.22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="O6">
-        <v>0.33</v>
-      </c>
-      <c r="P6">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="S6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="U6">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6">
-        <v>0.76</v>
-      </c>
-      <c r="AB6">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="M7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="O7">
-        <v>0.317</v>
-      </c>
-      <c r="P7">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="S7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7">
-        <v>-0.17799999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>-0.115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B26">
+        <v>0.495</v>
+      </c>
+      <c r="C26">
+        <v>0.24</v>
+      </c>
+      <c r="E26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="I8">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="J8">
-        <v>-0.11</v>
-      </c>
-      <c r="K8">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="M8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="O8">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="P8">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>0.155</v>
-      </c>
-      <c r="S8" t="s">
-        <v>8</v>
-      </c>
-      <c r="U8">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="V8">
-        <v>-0.11</v>
-      </c>
-      <c r="W8">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8">
-        <v>0.66400000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="J9">
-        <v>-0.13500000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.191</v>
-      </c>
-      <c r="M9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9">
-        <v>0.505</v>
-      </c>
-      <c r="O9">
-        <v>0.435</v>
-      </c>
-      <c r="Q9">
-        <v>0.129</v>
-      </c>
-      <c r="S9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="V9">
-        <v>0.11</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="AA9">
-        <v>-0.157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="K10">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="O10">
-        <v>0.753</v>
-      </c>
-      <c r="P10">
-        <v>0.24</v>
-      </c>
-      <c r="Q10">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="S10" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="U10">
-        <v>0.151</v>
-      </c>
-      <c r="V10">
-        <v>-0.11</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z10">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="AA10">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="AB10">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11">
+      <c r="B27">
         <v>0.88600000000000001</v>
       </c>
-      <c r="M11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="O11">
-        <v>0.62</v>
-      </c>
-      <c r="S11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11">
-        <v>0.51</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z11">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12">
-        <v>0.219</v>
-      </c>
-      <c r="O12">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="Q12">
-        <v>0.21</v>
-      </c>
-      <c r="S12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12">
-        <v>0.441</v>
-      </c>
-      <c r="U12">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z12">
-        <v>0.86599999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="I13">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="O13">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="Q13">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="S13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="I14">
-        <v>-0.107</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="S14" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="U14">
-        <v>-0.112</v>
-      </c>
-      <c r="V14">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="W14">
-        <v>-0.125</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z14">
-        <v>0.86299999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="I15">
-        <v>0.105</v>
-      </c>
-      <c r="K15">
-        <v>-0.124</v>
-      </c>
-      <c r="M15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="O15">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="P15">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="S15" t="s">
-        <v>15</v>
-      </c>
-      <c r="T15">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z15">
-        <v>0.51</v>
-      </c>
-      <c r="AA15">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <v>0.443</v>
-      </c>
-      <c r="I16">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="K16">
-        <v>-0.13900000000000001</v>
-      </c>
-      <c r="M16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="O16">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="P16">
-        <v>0.23</v>
-      </c>
-      <c r="Q16">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="S16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="V16">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z16">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AB16">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>17</v>
-      </c>
-      <c r="T18" t="s">
-        <v>18</v>
-      </c>
-      <c r="U18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>1</v>
-      </c>
-      <c r="W18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>6.6929999999999996</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>6.6929999999999996</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19">
-        <v>3.47</v>
-      </c>
-      <c r="I19">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="J19">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="K19">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="O19">
-        <v>3.109</v>
-      </c>
-      <c r="P19">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="Q19">
-        <v>1.24</v>
-      </c>
-      <c r="S19" t="s">
-        <v>22</v>
-      </c>
-      <c r="T19">
-        <v>3.39</v>
-      </c>
-      <c r="U19">
-        <v>2.968</v>
-      </c>
-      <c r="V19">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="W19">
-        <v>1.079</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z19">
-        <v>3.5409999999999999</v>
-      </c>
-      <c r="AA19">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="AB19">
-        <v>1.8240000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="J20">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="K20">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="P20">
-        <v>0.09</v>
-      </c>
-      <c r="Q20">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="S20" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="U20">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="V20">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="W20">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z20">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="AA20">
-        <v>0.2</v>
-      </c>
-      <c r="AB20">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="J21">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="K21">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="P21">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="Q21">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="S21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="U21">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="V21">
-        <v>0.499</v>
-      </c>
-      <c r="W21">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z21">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="AA21">
-        <v>0.436</v>
-      </c>
-      <c r="AB21">
-        <v>0.55800000000000005</v>
+      <c r="C27">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.218</v>
+      </c>
+      <c r="E27">
+        <v>0.10100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Z1:AB16" xr:uid="{39412BF1-7058-497E-BBA1-3DAA310B3CD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z2:AB16">
-      <sortCondition sortBy="cellColor" ref="AB1:AB16" dxfId="20"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="greaterThan">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B2:D13">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="G2:I13">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
-      <formula>0.499</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:P4 N2 P2 N3:O3 N6:Q6 N5:O5 Q5 N10:Q12 N7:N8 P7:Q8 O9:Q9 N14:Q16 N13 P13:Q13">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="L2:N13">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:W16 T2:V2 T3:U4 W3:W4">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="Q2:S13">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:Q16">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AB16">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B16:E27">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4074,7 +3537,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H2" sqref="H2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4682,16 +4145,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="39"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4985,11 +4448,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="47"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="69"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5003,7 +4466,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A20" sqref="A3:B20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5631,31 +5094,31 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="70"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="68"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="67" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="greaterThan">
       <formula>0.399</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
       <formula>0.399</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6098,21 +5561,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="63"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="67"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6540,16 +6003,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="59"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="66"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6808,16 +6271,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="56"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="65"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D0275-8DFC-4A0C-B2BB-D31100F54ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF396E1-E547-4F9E-84C6-0539742CA5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Drop energy, pray, spirit'!$A$15:$S$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Numeric!$A$1:$J$1</definedName>
@@ -145,6 +145,56 @@
           </rPr>
           <t xml:space="preserve">
 Maximum likelihood, varimax
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="2" shapeId="0" xr:uid="{AC596428-AC76-47DE-95A2-2E771234EF9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum Likelihood, promax
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="2" shapeId="0" xr:uid="{757BA119-28A5-497D-87CC-6A14CB24F0C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelhood, oblimin
 </t>
         </r>
       </text>
@@ -380,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="36">
   <si>
     <t>ML2</t>
   </si>
@@ -549,7 +599,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="90">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -615,6 +665,70 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -705,6 +819,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -753,6 +927,22 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -783,6 +973,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -847,6 +1067,76 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -855,6 +1145,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -863,6 +1173,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -871,6 +1211,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -879,6 +1279,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -887,6 +1297,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -981,198 +1411,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2721,43 +2959,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="38"/>
+      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="89"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="16" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="15" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2768,21 +3006,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.86328125" customWidth="1"/>
     <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="7" max="7" width="12.06640625" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
     <col min="16" max="16" width="12.53125" customWidth="1"/>
+    <col min="19" max="19" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>17</v>
       </c>
@@ -2820,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +3102,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2899,7 +3140,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2937,7 +3178,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2984,7 +3225,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3263,7 @@
         <v>-0.16600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3057,7 +3298,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3101,7 +3342,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3145,7 +3386,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3183,7 +3424,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3462,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3256,7 +3497,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3300,7 +3541,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -3313,8 +3554,44 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3330,8 +3607,35 @@
       <c r="E16">
         <v>0.59699999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0.505</v>
+      </c>
+      <c r="J16">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.307</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>0.11</v>
+      </c>
+      <c r="Q16">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3344,8 +3648,41 @@
       <c r="E17">
         <v>0.40699999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.755</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>0.502</v>
+      </c>
+      <c r="S17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17">
+        <v>0.192</v>
+      </c>
+      <c r="V17">
+        <v>0.245</v>
+      </c>
+      <c r="W17">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3361,8 +3698,35 @@
       <c r="E18">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>0.11</v>
+      </c>
+      <c r="J18">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>0.95</v>
+      </c>
+      <c r="S18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>0.93</v>
+      </c>
+      <c r="W18">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3378,8 +3742,44 @@
       <c r="E19">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>0.95</v>
+      </c>
+      <c r="K19">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P19">
+        <v>0.19</v>
+      </c>
+      <c r="Q19">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>-0.105</v>
+      </c>
+      <c r="U19">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="V19">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="W19">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3389,8 +3789,44 @@
       <c r="E20">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>0.874</v>
+      </c>
+      <c r="K20">
+        <v>0.109</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>0.122</v>
+      </c>
+      <c r="O20">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P20">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.129</v>
+      </c>
+      <c r="S20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="U20">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="V20">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3403,8 +3839,32 @@
       <c r="D21">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="K21">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21">
+        <v>0.109</v>
+      </c>
+      <c r="U21">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3420,8 +3880,29 @@
       <c r="E22">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K22">
+        <v>0.159</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S22" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22">
+        <v>1.0209999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3437,8 +3918,53 @@
       <c r="E23">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>0.114</v>
+      </c>
+      <c r="I23">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J23">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="K23">
+        <v>-0.156</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="O23">
+        <v>0.151</v>
+      </c>
+      <c r="P23">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="S23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V23">
+        <v>-0.214</v>
+      </c>
+      <c r="W23">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3454,8 +3980,35 @@
       <c r="E24">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="I24">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>0.871</v>
+      </c>
+      <c r="S24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -3468,8 +4021,44 @@
       <c r="D25">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I25">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J25">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.111</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="P25">
+        <v>0.104</v>
+      </c>
+      <c r="Q25">
+        <v>-0.187</v>
+      </c>
+      <c r="S25" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25">
+        <v>0.82</v>
+      </c>
+      <c r="W25">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -3482,8 +4071,26 @@
       <c r="E26">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>0.84</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -3499,31 +4106,84 @@
       <c r="E27">
         <v>0.10100000000000001</v>
       </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="O27">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P27">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>-0.17</v>
+      </c>
+      <c r="S27" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="V27">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="W27">
+        <v>-0.159</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:K27">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:Q27">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:W27">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4145,16 +4805,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="39"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="79"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4448,11 +5108,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="69"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="76"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5094,30 +5754,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="68"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="74"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5565,17 +6225,17 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6003,16 +6663,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="66"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="63"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6271,16 +6931,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="65"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="60"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF396E1-E547-4F9E-84C6-0539742CA5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F96A7-AC54-4ACD-A23A-0D5A0B594CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
@@ -17,18 +17,20 @@
     <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId2"/>
     <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId3"/>
     <sheet name="PCA" sheetId="8" r:id="rId4"/>
-    <sheet name="Drop prayer and spirit" sheetId="2" r:id="rId5"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId5"/>
     <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId6"/>
-    <sheet name="Comparing MPM" sheetId="6" r:id="rId7"/>
-    <sheet name="Numeric" sheetId="5" r:id="rId8"/>
+    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId7"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId8"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Numeric!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PCA!$B$1:$E$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
   </definedNames>
@@ -340,6 +342,141 @@
     <author>hanna</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BF07EF22-39DC-4119-8DF2-E0F29C3B0008}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelihood, varimax rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FC0F7213-7285-4B2C-B961-AEEC5050BD1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum Likelihood, promax rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2510CC9D-8268-435A-8CB7-4E7BC12401C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelihood, oblimin rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5EA7F6F2-02E1-4A68-8922-3BBD5F6D467E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum Likelihood, cluster rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E0824D5C-0A44-4F46-8A81-A476B5475001}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Principal Axis, varimax
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D5712E48-0578-4E7B-970F-9D684F744419}">
       <text>
         <r>
@@ -394,7 +531,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -430,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="36">
   <si>
     <t>ML2</t>
   </si>
@@ -599,7 +736,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -629,162 +766,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -911,68 +892,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1035,6 +954,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -1077,42 +1016,34 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1293,6 +1224,94 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1767,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A59E54-D4A7-4C25-9D11-CD018EBC24D4}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2959,43 +2978,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="89"/>
+      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="75"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="88" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="16" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="87" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="9" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3008,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3019,7 +3038,7 @@
     <col min="7" max="7" width="12.06640625" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.59765625" customWidth="1"/>
-    <col min="16" max="16" width="12.53125" customWidth="1"/>
+    <col min="16" max="16" width="14.265625" customWidth="1"/>
     <col min="19" max="19" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4143,47 +4162,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="65"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4196,9 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4805,16 +4822,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="79"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="56"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5108,11 +5125,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="76"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="53"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5754,30 +5771,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="74"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="51"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6221,21 +6238,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="67"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="44"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6245,6 +6262,657 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0.436</v>
+      </c>
+      <c r="K2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="O2">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>0.502</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>0.98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>-0.12</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.307</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.434</v>
+      </c>
+      <c r="C9">
+        <v>0.504</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G9">
+        <v>-0.125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>0.214</v>
+      </c>
+      <c r="O9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.33</v>
+      </c>
+      <c r="C10">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0.12</v>
+      </c>
+      <c r="C11">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>0.377</v>
+      </c>
+      <c r="O11">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0.98</v>
+      </c>
+      <c r="G12">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.503</v>
+      </c>
+      <c r="C13">
+        <v>0.246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0.45</v>
+      </c>
+      <c r="G13">
+        <v>0.254</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.184</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>0.36</v>
+      </c>
+      <c r="K14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C17">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="C18">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0.437</v>
+      </c>
+      <c r="C19">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0.81</v>
+      </c>
+      <c r="C20">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C21">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0.436</v>
+      </c>
+      <c r="C28">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C29">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:C14">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G14">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K14">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O14">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C29">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -6663,16 +7331,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="63"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="40"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6681,7 +7349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -6931,16 +7599,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="60"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="37"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F96A7-AC54-4ACD-A23A-0D5A0B594CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAE0A9-BF62-4B7F-AF25-60C28C6703E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -860,34 +932,172 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -930,18 +1140,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -974,104 +1188,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1252,104 +1374,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1786,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A59E54-D4A7-4C25-9D11-CD018EBC24D4}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1864,232 +1888,202 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.872</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.245</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0.81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>0.878</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="Q2">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="L2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="N2">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="R2">
-        <v>0.126</v>
-      </c>
-      <c r="S2">
-        <v>-0.152</v>
-      </c>
-      <c r="U2">
-        <v>-0.107</v>
-      </c>
-      <c r="W2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2">
-        <v>0.108</v>
-      </c>
       <c r="Y2">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="Z2">
-        <v>0.125</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.191</v>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.72799999999999998</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="C3">
-        <v>0.14000000000000001</v>
+        <v>-0.104</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>0.192</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="G3">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="H3">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>0.41</v>
-      </c>
-      <c r="L3">
-        <v>0.40500000000000003</v>
+        <v>16</v>
       </c>
       <c r="M3">
-        <v>0.311</v>
+        <v>0.96</v>
       </c>
       <c r="N3">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
+        <v>0.11</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>0.40799999999999997</v>
       </c>
       <c r="R3">
-        <v>0.58499999999999996</v>
+        <v>-0.114</v>
       </c>
       <c r="S3">
-        <v>0.224</v>
-      </c>
-      <c r="U3">
-        <v>-0.17299999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="W3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3">
-        <v>0.85699999999999998</v>
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-0.104</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="G4">
-        <v>0.17</v>
+        <v>0.871</v>
       </c>
       <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="M4">
-        <v>0.96</v>
-      </c>
-      <c r="N4">
-        <v>0.11</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="T4">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="U4">
+        <v>0.106</v>
+      </c>
+      <c r="W4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="R4">
-        <v>-0.114</v>
-      </c>
-      <c r="S4">
-        <v>0.128</v>
-      </c>
-      <c r="W4" t="s">
-        <v>12</v>
+      <c r="X4">
+        <v>0.1</v>
       </c>
       <c r="Y4">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="Z4">
-        <v>0.27800000000000002</v>
+        <v>-0.12</v>
       </c>
       <c r="AB4">
-        <v>0.53200000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="C5">
-        <v>-0.106</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0.22800000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="G5">
-        <v>0.50900000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>0.443</v>
       </c>
       <c r="L5">
-        <v>0.63800000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N5">
-        <v>-0.16400000000000001</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="P5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q5">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="R5">
-        <v>0.36899999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="S5">
-        <v>0.14599999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="T5">
-        <v>0.32400000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="U5">
-        <v>-0.13200000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="V5" t="s">
         <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="Z5">
-        <v>0.21199999999999999</v>
+        <v>16</v>
+      </c>
+      <c r="AA5">
+        <v>0.94899999999999995</v>
       </c>
       <c r="AC5">
-        <v>-0.14699999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="AD5" t="s">
         <v>25</v>
@@ -2097,364 +2091,397 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.44800000000000001</v>
+        <v>0.185</v>
+      </c>
+      <c r="C6">
+        <v>0.64800000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="G6">
-        <v>-0.14399999999999999</v>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>0.998</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>0.505</v>
-      </c>
-      <c r="M6">
-        <v>0.223</v>
-      </c>
-      <c r="N6">
-        <v>-0.22</v>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>0.88600000000000001</v>
       </c>
       <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R6">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.35</v>
+      </c>
+      <c r="T6">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="U6">
+        <v>-0.15</v>
+      </c>
+      <c r="W6" t="s">
         <v>6</v>
       </c>
-      <c r="S6">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="W6" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6">
-        <v>0.318</v>
-      </c>
-      <c r="Y6">
-        <v>0.375</v>
-      </c>
       <c r="Z6">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AC6">
-        <v>-0.124</v>
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.872</v>
+        <v>0.81</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="G7">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H7">
-        <v>0.245</v>
+        <v>0.878</v>
       </c>
       <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="R7">
+        <v>0.126</v>
+      </c>
+      <c r="S7">
+        <v>-0.152</v>
+      </c>
+      <c r="U7">
+        <v>-0.107</v>
+      </c>
+      <c r="W7" t="s">
         <v>11</v>
       </c>
-      <c r="L7">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="P7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="W7" t="s">
-        <v>13</v>
+      <c r="X7">
+        <v>0.108</v>
       </c>
       <c r="Y7">
-        <v>0.16300000000000001</v>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Z7">
+        <v>0.125</v>
       </c>
       <c r="AA7">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="AC7">
-        <v>0.75800000000000001</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.55900000000000005</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="C8">
-        <v>0.105</v>
+        <v>-0.106</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.65300000000000002</v>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.50900000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="M8">
-        <v>-0.11</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="N8">
-        <v>0.16600000000000001</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="P8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>0.70299999999999996</v>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.36899999999999999</v>
       </c>
       <c r="S8">
-        <v>0.10100000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="T8">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="U8">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="U8">
-        <v>0.19800000000000001</v>
+      <c r="V8" t="s">
+        <v>25</v>
       </c>
       <c r="W8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA8">
-        <v>-0.114</v>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.21199999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.193</v>
+        <v>-0.14699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.55900000000000005</v>
       </c>
       <c r="C9">
-        <v>1.0069999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G9">
-        <v>0.126</v>
-      </c>
-      <c r="H9">
-        <v>0.13500000000000001</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="M9">
+        <v>-0.11</v>
+      </c>
+      <c r="N9">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P9" t="s">
         <v>8</v>
       </c>
-      <c r="K9">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="M9">
-        <v>-0.13500000000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.191</v>
-      </c>
-      <c r="P9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9">
-        <v>0.188</v>
+      <c r="Q9">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="S9">
+        <v>0.10100000000000001</v>
       </c>
       <c r="T9">
-        <v>0.317</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="U9">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="V9" t="s">
-        <v>25</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="W9" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>0.55500000000000005</v>
+        <v>14</v>
       </c>
       <c r="Y9">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Z9">
-        <v>-0.17599999999999999</v>
-      </c>
-      <c r="AB9">
-        <v>0.23</v>
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA9">
+        <v>-0.114</v>
+      </c>
+      <c r="AC9">
+        <v>0.193</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="C10">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>0.871</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
       <c r="K10">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="N10">
-        <v>0.11899999999999999</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <v>0.97099999999999997</v>
       </c>
       <c r="T10">
-        <v>0.96399999999999997</v>
+        <v>-0.109</v>
       </c>
       <c r="U10">
-        <v>0.106</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="W10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>0.1</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Y10">
-        <v>-0.12</v>
-      </c>
-      <c r="AB10">
-        <v>0.67200000000000004</v>
+        <v>0.501</v>
+      </c>
+      <c r="Z10">
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.223</v>
+      </c>
+      <c r="AC10">
+        <v>-0.19400000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.185</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C11">
-        <v>0.64800000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>0.192</v>
+      </c>
+      <c r="G11">
+        <v>0.65800000000000003</v>
       </c>
       <c r="H11">
-        <v>0.998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>0.41</v>
+      </c>
+      <c r="L11">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.311</v>
+      </c>
+      <c r="N11">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="S11">
+        <v>0.224</v>
+      </c>
+      <c r="U11">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="W11" t="s">
         <v>7</v>
       </c>
-      <c r="K11">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="R11">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="S11">
-        <v>0.35</v>
-      </c>
-      <c r="T11">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="U11">
-        <v>-0.15</v>
-      </c>
-      <c r="W11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z11">
-        <v>0.96099999999999997</v>
+      <c r="X11">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.126</v>
+      </c>
+      <c r="H12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="M12">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.191</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>0.188</v>
+      </c>
+      <c r="T12">
+        <v>0.317</v>
+      </c>
+      <c r="U12">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="V12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="C12">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="P12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="T12">
-        <v>-0.109</v>
-      </c>
-      <c r="U12">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="W12" t="s">
-        <v>10</v>
-      </c>
       <c r="X12">
-        <v>0.11700000000000001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="Y12">
-        <v>0.501</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Z12">
-        <v>-0.17399999999999999</v>
-      </c>
-      <c r="AA12">
-        <v>0.223</v>
-      </c>
-      <c r="AC12">
-        <v>-0.19400000000000001</v>
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="AB12">
+        <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
@@ -2571,114 +2598,111 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="C15">
-        <v>0.27200000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>-0.13200000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="G15">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.63700000000000001</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="J15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0.59399999999999997</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>0.105</v>
+        <v>0.505</v>
+      </c>
+      <c r="M15">
+        <v>0.223</v>
       </c>
       <c r="N15">
+        <v>-0.22</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="W15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>0.318</v>
+      </c>
+      <c r="Y15">
+        <v>0.375</v>
+      </c>
+      <c r="Z15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AA15">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AC15">
         <v>-0.124</v>
-      </c>
-      <c r="P15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="W15" t="s">
-        <v>15</v>
-      </c>
-      <c r="X15">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="Z15">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA15">
-        <v>0.121</v>
-      </c>
-      <c r="AB15">
-        <v>-0.153</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0.61799999999999999</v>
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.27200000000000002</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>0.47299999999999998</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="G16">
-        <v>0.20399999999999999</v>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.63700000000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>0.443</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="L16">
-        <v>0.27300000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="N16">
-        <v>-0.13900000000000001</v>
+        <v>-0.124</v>
       </c>
       <c r="P16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="W16" t="s">
         <v>15</v>
       </c>
-      <c r="Q16">
-        <v>0.248</v>
-      </c>
-      <c r="S16">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="T16">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="U16">
-        <v>0.111</v>
-      </c>
-      <c r="V16" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" t="s">
-        <v>16</v>
+      <c r="X16">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Z16">
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA16">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="AC16">
-        <v>0.128</v>
+        <v>0.121</v>
+      </c>
+      <c r="AB16">
+        <v>-0.153</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.45">
@@ -2978,43 +3002,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="N1:N16" dxfId="75"/>
+      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="74" priority="16" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="73" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="70" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+      <formula>0.499</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:AC16">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3027,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="F8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4162,47 +4186,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="65"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="76"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="64" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4822,16 +4846,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="56"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="67"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5125,11 +5149,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="53"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="64"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5771,30 +5795,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="51"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="62"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6238,21 +6262,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="44"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="55"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6265,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6879,31 +6903,31 @@
   </sheetData>
   <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
-      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="51"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C14">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G14">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K14">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O14">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7331,16 +7355,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="40"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="45"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7599,16 +7623,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="37"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="42"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -1,38 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAE0A9-BF62-4B7F-AF25-60C28C6703E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04988D2-74E7-4C19-A64F-728B3E438E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
-    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId2"/>
-    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId3"/>
-    <sheet name="PCA" sheetId="8" r:id="rId4"/>
-    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId6"/>
-    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId7"/>
-    <sheet name="Comparing MPM" sheetId="6" r:id="rId8"/>
-    <sheet name="Numeric" sheetId="5" r:id="rId9"/>
+    <sheet name="Combine Pray and Spirit" sheetId="12" r:id="rId2"/>
+    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId3"/>
+    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId4"/>
+    <sheet name="PCA" sheetId="8" r:id="rId5"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId7"/>
+    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId8"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId9"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Numeric!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PCA!$B$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combine Pray and Spirit'!$A$18:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PCA!$B$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,6 +55,66 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{575DDA7A-1908-4B42-9961-2E4DA5AF87AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML varimax
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1AD95E32-A93F-4250-8A65-83534243FA9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML promax
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={05F861C7-3F05-45BE-A842-A70399D00986}</author>
@@ -205,7 +267,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}</author>
@@ -223,7 +285,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}</author>
@@ -241,7 +303,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -276,7 +338,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -336,7 +398,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -471,7 +533,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -531,7 +593,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -567,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="50">
   <si>
     <t>ML2</t>
   </si>
@@ -676,6 +738,48 @@
   <si>
     <t>Cumulative Proportion</t>
   </si>
+  <si>
+    <t>Acupuncture</t>
+  </si>
+  <si>
+    <t>Biofeedback</t>
+  </si>
+  <si>
+    <t>Chiropractic</t>
+  </si>
+  <si>
+    <t>Energy Healing</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Herbal Therapy</t>
+  </si>
+  <si>
+    <t>Vitamins</t>
+  </si>
+  <si>
+    <t>Homeopathy</t>
+  </si>
+  <si>
+    <t>Hypnosis</t>
+  </si>
+  <si>
+    <t>Imagery</t>
+  </si>
+  <si>
+    <t>Massage</t>
+  </si>
+  <si>
+    <t>Relaxiation</t>
+  </si>
+  <si>
+    <t>Special Diet</t>
+  </si>
+  <si>
+    <t>Prayer/Spiritual</t>
+  </si>
 </sst>
 </file>
 
@@ -736,7 +840,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="119">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -834,6 +938,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -842,6 +996,94 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -852,6 +1094,110 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -892,6 +1238,94 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -912,6 +1346,102 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -932,6 +1462,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -952,6 +1490,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1002,6 +1548,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1032,6 +1586,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1092,6 +1654,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1102,6 +1672,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1122,6 +1700,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1132,6 +1718,76 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -1146,234 +1802,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1810,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A59E54-D4A7-4C25-9D11-CD018EBC24D4}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3002,43 +3430,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="118"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="17" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="13" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="3" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3047,7 +3475,1027 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-0.108</v>
+      </c>
+      <c r="D4">
+        <v>0.313</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0.26</v>
+      </c>
+      <c r="H6">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J6">
+        <v>-0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0.49</v>
+      </c>
+      <c r="J8">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0.39</v>
+      </c>
+      <c r="J10">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.317</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J12">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="74"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:D14">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J14">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>-0.127</v>
+      </c>
+      <c r="L2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.157</v>
+      </c>
+      <c r="C3">
+        <v>0.22</v>
+      </c>
+      <c r="D3">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <v>0.63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0.31</v>
+      </c>
+      <c r="C4">
+        <v>0.252</v>
+      </c>
+      <c r="G4">
+        <v>0.437</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>0.224</v>
+      </c>
+      <c r="L4">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0.23</v>
+      </c>
+      <c r="C5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.153</v>
+      </c>
+      <c r="E5">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>-0.159</v>
+      </c>
+      <c r="N5">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0.443</v>
+      </c>
+      <c r="C6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.312</v>
+      </c>
+      <c r="F6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.443</v>
+      </c>
+      <c r="O6">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0.185</v>
+      </c>
+      <c r="C7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.189</v>
+      </c>
+      <c r="D8">
+        <v>0.193</v>
+      </c>
+      <c r="E8">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>0.221</v>
+      </c>
+      <c r="L8">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="M8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.115</v>
+      </c>
+      <c r="F9">
+        <v>0.155</v>
+      </c>
+      <c r="G9">
+        <v>0.247</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M9">
+        <v>-0.105</v>
+      </c>
+      <c r="N9">
+        <v>-0.193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.115</v>
+      </c>
+      <c r="F10">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.23</v>
+      </c>
+      <c r="M10">
+        <v>0.114</v>
+      </c>
+      <c r="O10">
+        <v>-0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>0.24</v>
+      </c>
+      <c r="C11">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="L11">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>0.21</v>
+      </c>
+      <c r="C12">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.183</v>
+      </c>
+      <c r="E12">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>0.61</v>
+      </c>
+      <c r="L12">
+        <v>0.129</v>
+      </c>
+      <c r="N12">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="O12">
+        <v>-0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.217</v>
+      </c>
+      <c r="F13">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.26</v>
+      </c>
+      <c r="G14">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M14">
+        <v>-0.113</v>
+      </c>
+      <c r="O14">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.159</v>
+      </c>
+      <c r="F15">
+        <v>0.111</v>
+      </c>
+      <c r="G15">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <v>0.873</v>
+      </c>
+      <c r="K15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="N15">
+        <v>-0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.129</v>
+      </c>
+      <c r="F19">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>0.191</v>
+      </c>
+      <c r="E20">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.186</v>
+      </c>
+      <c r="E21">
+        <v>0.123</v>
+      </c>
+      <c r="F21">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.128</v>
+      </c>
+      <c r="D22">
+        <v>-0.104</v>
+      </c>
+      <c r="F22">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>0.22</v>
+      </c>
+      <c r="C24">
+        <v>-0.252</v>
+      </c>
+      <c r="D24">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>0.999</v>
+      </c>
+      <c r="E25">
+        <v>-0.108</v>
+      </c>
+      <c r="F25">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>1.04</v>
+      </c>
+      <c r="E27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F27">
+        <v>-0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D28">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="E28">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.127</v>
+      </c>
+      <c r="E29">
+        <v>0.124</v>
+      </c>
+      <c r="F29">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="G29">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D31">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G32">
+        <v>-0.13500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A18:G32" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:G32">
+      <sortCondition sortBy="cellColor" ref="G18:G32" dxfId="1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:G15">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:O15">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:G32">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -4186,47 +5634,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="76"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="108"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="75" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="74" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="72" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4235,7 +5683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -4846,16 +6294,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="67"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="99"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4864,7 +6312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -5149,11 +6597,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="64"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="96"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5162,7 +6610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -5795,30 +7243,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="62"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="94"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5827,7 +7275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -6262,21 +7710,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="55"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="87"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6285,7 +7733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -6903,31 +8351,31 @@
   </sheetData>
   <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
-      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="51"/>
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="83"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C14">
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G14">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K14">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O14">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C29">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6936,7 +8384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -7355,284 +8803,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="45"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="77"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="J2">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="J3">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>-0.108</v>
-      </c>
-      <c r="D4">
-        <v>0.313</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>0.70799999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>0.26</v>
-      </c>
-      <c r="H6">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="J6">
-        <v>-0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>0.71099999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="D8">
-        <v>0.215</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>0.49</v>
-      </c>
-      <c r="J8">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>0.64700000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>0.39</v>
-      </c>
-      <c r="J10">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.317</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="J12">
-        <v>-0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="42"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,33 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04988D2-74E7-4C19-A64F-728B3E438E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D979F4D-66FA-4C39-BB33-7E58A1FDAD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
     <sheet name="Combine Pray and Spirit" sheetId="12" r:id="rId2"/>
-    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId3"/>
-    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId4"/>
-    <sheet name="PCA" sheetId="8" r:id="rId5"/>
-    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId6"/>
-    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId7"/>
-    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId8"/>
-    <sheet name="Comparing MPM" sheetId="6" r:id="rId9"/>
-    <sheet name="Numeric" sheetId="5" r:id="rId10"/>
+    <sheet name="Comb Pray Spirit Drop Bio" sheetId="13" r:id="rId3"/>
+    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId4"/>
+    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId5"/>
+    <sheet name="PCA" sheetId="8" r:id="rId6"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId8"/>
+    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId9"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId10"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combine Pray and Spirit'!$A$18:$G$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Numeric!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PCA!$B$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Comb Pray Spirit Drop Bio'!$H$46:$L$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combine Pray and Spirit'!$H$51:$M$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PCA!$B$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,11 +112,400 @@
         </r>
       </text>
     </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{B4DB96B5-C721-4F96-B17D-069A5B79FCC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML cluster</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{D4F4D90C-0880-40CD-8F47-AF18E74003B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML oblimin
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{531FEF0E-7E03-4E75-A755-B4ABDB1812F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML varimax
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{E0E9A255-1999-4806-9EEB-8EB66C77BABA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML Promax</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{052CC013-2A17-4AE4-A3DA-8530790FEF71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML Cluster
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H51" authorId="0" shapeId="0" xr:uid="{52F92FE7-3E20-4C14-8AB8-2DC404FBEB2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML oblimin
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{93B109C3-C5E5-457F-BA6A-EE399D655DD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Models excluding prayer and spiritual healing, tetrachoric matrix on numeric variables 
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4989D856-80D4-4B6E-A150-26CB664ADAB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML Varimax
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FD506B92-A826-4850-95AB-E72421B043F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML Promax
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E5802651-6602-45AC-9867-E383CF322C8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML oblimin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{8951F6A8-E9D1-46E8-BE31-005ED8F78FC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML cluster
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{DFE6F3E4-D93A-4BC5-936A-3FC5153C7ADC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML varimax</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{73FE81AF-3069-4D23-9593-FF6A9EFF498C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML promax</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{6C417EEB-06BF-4619-A935-CFD545593031}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML Oblimin
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{60A3DF63-E993-4206-AA0A-A72FDF38346A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML Cluster</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={05F861C7-3F05-45BE-A842-A70399D00986}</author>
@@ -267,7 +658,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}</author>
@@ -285,7 +676,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}</author>
@@ -303,7 +694,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -338,7 +729,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -398,7 +789,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -533,7 +924,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -593,43 +984,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>hanna</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{93B109C3-C5E5-457F-BA6A-EE399D655DD0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Models excluding prayer and spiritual healing, tetrachoric matrix on numeric variables 
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="51">
   <si>
     <t>ML2</t>
   </si>
@@ -780,6 +1136,9 @@
   <si>
     <t>Prayer/Spiritual</t>
   </si>
+  <si>
+    <t>aPraySpirit</t>
+  </si>
 </sst>
 </file>
 
@@ -840,7 +1199,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="161">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -906,6 +1265,156 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -938,6 +1447,38 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -988,6 +1529,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -1005,6 +1556,22 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
@@ -1052,6 +1619,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -1084,6 +1701,38 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1094,6 +1743,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -1174,6 +1853,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
@@ -1198,6 +1907,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1218,6 +1983,86 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1228,6 +2073,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1238,94 +2091,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1346,90 +2111,92 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3430,43 +4197,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="118"/>
+      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="160"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="117" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="17" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="13" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="114" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="3" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3476,6 +4243,443 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.9296875" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>-0.114</v>
+      </c>
+      <c r="C3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.317</v>
+      </c>
+      <c r="D6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.223</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E9">
+        <v>-0.193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.624</v>
+      </c>
+      <c r="D12">
+        <v>-0.224</v>
+      </c>
+      <c r="E12">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>-0.01</v>
+      </c>
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+      <c r="D17">
+        <v>0.27</v>
+      </c>
+      <c r="E17">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.12</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>-0.03</v>
+      </c>
+      <c r="E18">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.11</v>
+      </c>
+      <c r="C19">
+        <v>-0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.36</v>
+      </c>
+      <c r="E19">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>0.01</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20">
+        <v>0.7</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>0.37</v>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
+      </c>
+      <c r="E21">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>-0.02</v>
+      </c>
+      <c r="C22">
+        <v>0.71</v>
+      </c>
+      <c r="D22">
+        <v>-0.03</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>0.47</v>
+      </c>
+      <c r="D23">
+        <v>0.11</v>
+      </c>
+      <c r="E23">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0.63</v>
+      </c>
+      <c r="C24">
+        <v>-0.03</v>
+      </c>
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0.31</v>
+      </c>
+      <c r="C25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.03</v>
+      </c>
+      <c r="E25">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.63</v>
+      </c>
+      <c r="C26">
+        <v>0.04</v>
+      </c>
+      <c r="D26">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.36</v>
+      </c>
+      <c r="C27">
+        <v>0.03</v>
+      </c>
+      <c r="D27">
+        <v>-0.08</v>
+      </c>
+      <c r="E27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
+      </c>
+      <c r="C28">
+        <v>0.24</v>
+      </c>
+      <c r="D28">
+        <v>0.04</v>
+      </c>
+      <c r="E28">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0.04</v>
+      </c>
+      <c r="C29">
+        <v>0.26</v>
+      </c>
+      <c r="D29">
+        <v>0.04</v>
+      </c>
+      <c r="E29">
+        <v>-0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="119"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:E14">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:E29">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -3725,16 +4929,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="74"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="116"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3745,17 +4949,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
     <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -4244,7 +5448,7 @@
         <v>-0.20899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -4263,8 +5467,26 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -4280,8 +5502,20 @@
       <c r="G19">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -4294,8 +5528,17 @@
       <c r="G20">
         <v>0.72799999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20">
+        <v>0.115</v>
+      </c>
+      <c r="N20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4311,8 +5554,14 @@
       <c r="F21">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -4328,16 +5577,40 @@
       <c r="F22">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="M22">
+        <v>0.155</v>
+      </c>
+      <c r="N22">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="E23">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M23">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4350,8 +5623,23 @@
       <c r="D24">
         <v>0.49299999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24">
+        <v>0.214</v>
+      </c>
+      <c r="L24">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="M24">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -4364,8 +5652,20 @@
       <c r="F25">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="L25">
+        <v>-0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4378,8 +5678,14 @@
       <c r="G26">
         <v>0.39100000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4392,8 +5698,23 @@
       <c r="F27">
         <v>-0.16800000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M27">
+        <v>0.157</v>
+      </c>
+      <c r="N27">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="O27">
+        <v>-0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -4409,8 +5730,17 @@
       <c r="E28">
         <v>-0.158</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="N28">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4429,8 +5759,17 @@
       <c r="G29">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29">
+        <v>0.63</v>
+      </c>
+      <c r="O29">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4440,8 +5779,14 @@
       <c r="G30">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4454,8 +5799,26 @@
       <c r="F31">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31">
+        <v>0.311</v>
+      </c>
+      <c r="K31">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M31">
+        <v>0.221</v>
+      </c>
+      <c r="N31">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="O31">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4468,25 +5831,902 @@
       <c r="G32">
         <v>-0.13500000000000001</v>
       </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.156</v>
+      </c>
+      <c r="C36">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.191</v>
+      </c>
+      <c r="E36">
+        <v>0.192</v>
+      </c>
+      <c r="F36">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="M36">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.436</v>
+      </c>
+      <c r="F37">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="M37">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>0.312</v>
+      </c>
+      <c r="E38">
+        <v>0.46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.121</v>
+      </c>
+      <c r="M38">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.18</v>
+      </c>
+      <c r="E39">
+        <v>0.91</v>
+      </c>
+      <c r="F39">
+        <v>0.123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="M39">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.49</v>
+      </c>
+      <c r="D40">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E40">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="K40">
+        <v>1.06</v>
+      </c>
+      <c r="L40">
+        <v>-0.159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C41">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0.254</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41">
+        <v>0.501</v>
+      </c>
+      <c r="J41">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="L41">
+        <v>-0.121</v>
+      </c>
+      <c r="M41">
+        <v>-0.121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C42">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E42">
+        <v>0.27</v>
+      </c>
+      <c r="F42">
+        <v>0.157</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42">
+        <v>-0.18</v>
+      </c>
+      <c r="J42">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="L42">
+        <v>-0.153</v>
+      </c>
+      <c r="M42">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D43">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E43">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <v>0.191</v>
+      </c>
+      <c r="J43">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L43">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C44">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D44">
+        <v>0.17</v>
+      </c>
+      <c r="E44">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J44">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="L44">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>0.497</v>
+      </c>
+      <c r="C45">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="K45">
+        <v>0.374</v>
+      </c>
+      <c r="L45">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M45">
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D46">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="K46">
+        <v>-0.105</v>
+      </c>
+      <c r="M46">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C47">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D47">
+        <v>0.124</v>
+      </c>
+      <c r="E47">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.378</v>
+      </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C48">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.307</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="K48">
+        <v>-0.124</v>
+      </c>
+      <c r="L48">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C49">
+        <v>0.184</v>
+      </c>
+      <c r="D49">
+        <v>0.115</v>
+      </c>
+      <c r="E49">
+        <v>0.124</v>
+      </c>
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="J49">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="K49">
+        <v>0.107</v>
+      </c>
+      <c r="L49">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>0.129</v>
+      </c>
+      <c r="F52">
+        <v>0.99</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="D53">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E53">
+        <v>0.49</v>
+      </c>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J53">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M53">
+        <v>-0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E54">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F54">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54">
+        <v>1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C55">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="D55">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E55">
+        <v>0.107</v>
+      </c>
+      <c r="F55">
+        <v>0.112</v>
+      </c>
+      <c r="H55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="L55">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="M55">
+        <v>-0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56">
+        <v>0.252</v>
+      </c>
+      <c r="D56">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="L56">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>0.317</v>
+      </c>
+      <c r="D57">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L57">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="C58">
+        <v>0.54</v>
+      </c>
+      <c r="E58">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="F58">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J58">
+        <v>0.59</v>
+      </c>
+      <c r="L58">
+        <v>-0.128</v>
+      </c>
+      <c r="M58">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>0.59</v>
+      </c>
+      <c r="D59">
+        <v>-0.123</v>
+      </c>
+      <c r="E59">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F59">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M59">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D60">
+        <v>0.371</v>
+      </c>
+      <c r="E60">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="M61">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62">
+        <v>0.43</v>
+      </c>
+      <c r="C62">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E62">
+        <v>0.104</v>
+      </c>
+      <c r="F62">
+        <v>0.128</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C63">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="D63">
+        <v>0.193</v>
+      </c>
+      <c r="F63">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63">
+        <v>0.37</v>
+      </c>
+      <c r="J63">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="K63">
+        <v>0.154</v>
+      </c>
+      <c r="L63">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <v>0.755</v>
+      </c>
+      <c r="C64">
+        <v>0.224</v>
+      </c>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64">
+        <v>0.186</v>
+      </c>
+      <c r="K64">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="L64">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C65">
+        <v>0.217</v>
+      </c>
+      <c r="D65">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="F65">
+        <v>0.157</v>
+      </c>
+      <c r="H65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J65">
+        <v>0.186</v>
+      </c>
+      <c r="M65">
+        <v>0.26</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A18:G32" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:G32">
-      <sortCondition sortBy="cellColor" ref="G18:G32" dxfId="1"/>
+  <autoFilter ref="H51:M65" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H52:M65">
+      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="113"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:G15">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:O15">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="11" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:G32">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:O32">
+    <cfRule type="cellIs" dxfId="109" priority="9" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F49">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:M49">
+    <cfRule type="cellIs" dxfId="107" priority="7" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F65">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M65">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="greaterThan">
+      <formula>0.395</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="greaterThan">
+      <formula>0.39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="greaterThan">
+      <formula>0.35</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4496,6 +6736,1527 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.221</v>
+      </c>
+      <c r="C2">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>0.255</v>
+      </c>
+      <c r="M2">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.51</v>
+      </c>
+      <c r="F3">
+        <v>0.34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>-0.11</v>
+      </c>
+      <c r="J4">
+        <v>0.18</v>
+      </c>
+      <c r="L4">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0.245</v>
+      </c>
+      <c r="K5">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>0.39</v>
+      </c>
+      <c r="K7">
+        <v>0.499</v>
+      </c>
+      <c r="M7">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.112</v>
+      </c>
+      <c r="M8">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.183</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.51</v>
+      </c>
+      <c r="E10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.193</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.318</v>
+      </c>
+      <c r="L10">
+        <v>0.193</v>
+      </c>
+      <c r="M10">
+        <v>-0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.221</v>
+      </c>
+      <c r="D11">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.626</v>
+      </c>
+      <c r="C12">
+        <v>0.216</v>
+      </c>
+      <c r="E12">
+        <v>0.115</v>
+      </c>
+      <c r="F12">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="L12">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.251</v>
+      </c>
+      <c r="D13">
+        <v>0.372</v>
+      </c>
+      <c r="E13">
+        <v>0.153</v>
+      </c>
+      <c r="F13">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.124</v>
+      </c>
+      <c r="K13">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0.13</v>
+      </c>
+      <c r="F17">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0.218</v>
+      </c>
+      <c r="E18">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="K18">
+        <v>-0.106</v>
+      </c>
+      <c r="L18">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.187</v>
+      </c>
+      <c r="C19">
+        <v>-0.123</v>
+      </c>
+      <c r="D19">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.432</v>
+      </c>
+      <c r="M19">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="M20">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>-0.222</v>
+      </c>
+      <c r="K21">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M22">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D23">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>-0.106</v>
+      </c>
+      <c r="J23">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="M23">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.18</v>
+      </c>
+      <c r="E24">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>0.21</v>
+      </c>
+      <c r="J24">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="K24">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="L24">
+        <v>-0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M25">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D26">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.223</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L26">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="K27">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="M27">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.108</v>
+      </c>
+      <c r="E28">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="K28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L28">
+        <v>-0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D29">
+        <v>-0.12</v>
+      </c>
+      <c r="E29">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J29">
+        <v>0.105</v>
+      </c>
+      <c r="K29">
+        <v>-0.14799999999999999</v>
+      </c>
+      <c r="M29">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="K32">
+        <v>-0.255</v>
+      </c>
+      <c r="L32">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>-0.112</v>
+      </c>
+      <c r="K33">
+        <v>0.24</v>
+      </c>
+      <c r="L33">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>0.121</v>
+      </c>
+      <c r="L34">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="C35">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.63</v>
+      </c>
+      <c r="E36">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K36">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D37">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E37">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0.159</v>
+      </c>
+      <c r="K37">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K38">
+        <v>0.255</v>
+      </c>
+      <c r="L38">
+        <v>-0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C39">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>0.18</v>
+      </c>
+      <c r="C40">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="J40">
+        <v>0.22</v>
+      </c>
+      <c r="K40">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0.222</v>
+      </c>
+      <c r="C41">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D41">
+        <v>0.109</v>
+      </c>
+      <c r="E41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="J41">
+        <v>-0.23</v>
+      </c>
+      <c r="K41">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D42">
+        <v>0.35</v>
+      </c>
+      <c r="E42">
+        <v>0.129</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="J42">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C43">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.182</v>
+      </c>
+      <c r="E43">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>0.83</v>
+      </c>
+      <c r="J43">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="C44">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J44">
+        <v>0.372</v>
+      </c>
+      <c r="L44">
+        <v>-0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>0.151</v>
+      </c>
+      <c r="C47">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D47">
+        <v>0.51</v>
+      </c>
+      <c r="E47">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="J47">
+        <v>0.251</v>
+      </c>
+      <c r="L47">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.158</v>
+      </c>
+      <c r="D48">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E48">
+        <v>-0.15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.52</v>
+      </c>
+      <c r="E50">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K50">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L50">
+        <v>-0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>0.104</v>
+      </c>
+      <c r="K51">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>0.74</v>
+      </c>
+      <c r="E52">
+        <v>0.224</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>0.214</v>
+      </c>
+      <c r="J52">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K52">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K53">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C54">
+        <v>0.33</v>
+      </c>
+      <c r="D54">
+        <v>0.188</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>0.66</v>
+      </c>
+      <c r="K54">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E55">
+        <v>-0.32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="J55">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="J56">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K56">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C58">
+        <v>0.182</v>
+      </c>
+      <c r="D58">
+        <v>-0.127</v>
+      </c>
+      <c r="E58">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="J58">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>0.161</v>
+      </c>
+      <c r="C59">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E59">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="H59" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K59">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="L59">
+        <v>-0.215</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H46:L59" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H47:L59">
+      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:F14">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:M14">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:F29">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:M29">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:E44">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:L44">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:E59">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:L59">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -5634,47 +9395,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="108"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="150"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="107" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="106" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="105" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="104" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5683,7 +9444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -6294,16 +10055,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="99"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="141"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="98" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6312,7 +10073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -6597,11 +10358,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="96"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="138"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6610,7 +10371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -7243,30 +11004,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="94"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="136"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7275,7 +11036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -7710,21 +11471,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="87"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="129"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7733,7 +11494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -8351,468 +12112,31 @@
   </sheetData>
   <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
-      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="83"/>
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="125"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C14">
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G14">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K14">
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O14">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C29">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.9296875" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>-0.114</v>
-      </c>
-      <c r="C3">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="E4">
-        <v>-0.191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0.83099999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.317</v>
-      </c>
-      <c r="D6">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.223</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>-0.23899999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="E9">
-        <v>-0.193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D11">
-        <v>0.223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.624</v>
-      </c>
-      <c r="D12">
-        <v>-0.224</v>
-      </c>
-      <c r="E12">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="E13">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>-0.01</v>
-      </c>
-      <c r="C17">
-        <v>0.08</v>
-      </c>
-      <c r="D17">
-        <v>0.27</v>
-      </c>
-      <c r="E17">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>0.12</v>
-      </c>
-      <c r="C18">
-        <v>0.05</v>
-      </c>
-      <c r="D18">
-        <v>-0.03</v>
-      </c>
-      <c r="E18">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>0.11</v>
-      </c>
-      <c r="C19">
-        <v>-0.1</v>
-      </c>
-      <c r="D19">
-        <v>0.36</v>
-      </c>
-      <c r="E19">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>0.01</v>
-      </c>
-      <c r="C20">
-        <v>0.02</v>
-      </c>
-      <c r="D20">
-        <v>0.7</v>
-      </c>
-      <c r="E20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>0.25</v>
-      </c>
-      <c r="C21">
-        <v>0.37</v>
-      </c>
-      <c r="D21">
-        <v>0.06</v>
-      </c>
-      <c r="E21">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>-0.02</v>
-      </c>
-      <c r="C22">
-        <v>0.71</v>
-      </c>
-      <c r="D22">
-        <v>-0.03</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>0.02</v>
-      </c>
-      <c r="C23">
-        <v>0.47</v>
-      </c>
-      <c r="D23">
-        <v>0.11</v>
-      </c>
-      <c r="E23">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>0.63</v>
-      </c>
-      <c r="C24">
-        <v>-0.03</v>
-      </c>
-      <c r="D24">
-        <v>0.01</v>
-      </c>
-      <c r="E24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>0.31</v>
-      </c>
-      <c r="C25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D25">
-        <v>0.03</v>
-      </c>
-      <c r="E25">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>0.63</v>
-      </c>
-      <c r="C26">
-        <v>0.04</v>
-      </c>
-      <c r="D26">
-        <v>0.03</v>
-      </c>
-      <c r="E26">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>0.36</v>
-      </c>
-      <c r="C27">
-        <v>0.03</v>
-      </c>
-      <c r="D27">
-        <v>-0.08</v>
-      </c>
-      <c r="E27">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>0.05</v>
-      </c>
-      <c r="C28">
-        <v>0.24</v>
-      </c>
-      <c r="D28">
-        <v>0.04</v>
-      </c>
-      <c r="E28">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>0.04</v>
-      </c>
-      <c r="C29">
-        <v>0.26</v>
-      </c>
-      <c r="D29">
-        <v>0.04</v>
-      </c>
-      <c r="E29">
-        <v>-0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="77"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D979F4D-66FA-4C39-BB33-7E58A1FDAD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18694EE0-267A-4391-9BBE-1110E7EC3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
     <sheet name="Combine Pray and Spirit" sheetId="12" r:id="rId2"/>
     <sheet name="Comb Pray Spirit Drop Bio" sheetId="13" r:id="rId3"/>
-    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId4"/>
-    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId5"/>
-    <sheet name="PCA" sheetId="8" r:id="rId6"/>
-    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId7"/>
-    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId8"/>
-    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId9"/>
-    <sheet name="Comparing MPM" sheetId="6" r:id="rId10"/>
-    <sheet name="Numeric" sheetId="5" r:id="rId11"/>
+    <sheet name="Final EFA" sheetId="14" r:id="rId4"/>
+    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId5"/>
+    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId6"/>
+    <sheet name="PCA" sheetId="8" r:id="rId7"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId8"/>
+    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId9"/>
+    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId10"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId11"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Comb Pray Spirit Drop Bio'!$H$46:$L$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combine Pray and Spirit'!$H$51:$M$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Numeric!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PCA!$B$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PCA!$B$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -265,6 +266,66 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D5712E48-0578-4E7B-970F-9D684F744419}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Four factor model excluding prayer and spiritual healing using MIDUS-complete data
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{6A9F4E1D-6D92-4062-8A79-2B5448FE1065}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Four factor model, prayer and spiritual healing dropped. 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -508,6 +569,40 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{184B6EB6-15CF-40F7-A145-000C47DA5B99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ML Cluster</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={05F861C7-3F05-45BE-A842-A70399D00986}</author>
     <author>tc={15ED4DD3-15BC-4E0F-AD77-76216B25453F}</author>
     <author>hanna</author>
@@ -658,7 +753,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}</author>
@@ -676,7 +771,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}</author>
@@ -694,7 +789,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -729,7 +824,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -789,7 +884,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -924,68 +1019,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>hanna</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D5712E48-0578-4E7B-970F-9D684F744419}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Four factor model excluding prayer and spiritual healing using MIDUS-complete data
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{6A9F4E1D-6D92-4062-8A79-2B5448FE1065}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Four factor model, prayer and spiritual healing dropped. 
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="60">
   <si>
     <t>ML2</t>
   </si>
@@ -1139,6 +1174,33 @@
   <si>
     <t>aPraySpirit</t>
   </si>
+  <si>
+    <t>Exercise or Movement Therapy</t>
+  </si>
+  <si>
+    <t>Herbal</t>
+  </si>
+  <si>
+    <t>Imagery Techniques</t>
+  </si>
+  <si>
+    <t>Relaxation and Meditation</t>
+  </si>
+  <si>
+    <t>Prayer or Spiritual Healing</t>
+  </si>
+  <si>
+    <t>Mind-Body Practices</t>
+  </si>
+  <si>
+    <t>Alternative Systems</t>
+  </si>
+  <si>
+    <t>Physical and Nutritional Approaches</t>
+  </si>
+  <si>
+    <t>Manipulative Treatments</t>
+  </si>
 </sst>
 </file>
 
@@ -1199,71 +1261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="161">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="70">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1271,940 +1269,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2471,6 +1535,222 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4197,43 +3477,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="160"/>
+      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="69"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="159" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="17" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="158" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="13" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="156" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="153" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4243,6 +3523,657 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" customWidth="1"/>
+    <col min="13" max="13" width="13.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0.436</v>
+      </c>
+      <c r="K2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="O2">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>0.502</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>0.98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>-0.12</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.307</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.434</v>
+      </c>
+      <c r="C9">
+        <v>0.504</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G9">
+        <v>-0.125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>0.214</v>
+      </c>
+      <c r="O9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.33</v>
+      </c>
+      <c r="C10">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0.12</v>
+      </c>
+      <c r="C11">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>0.377</v>
+      </c>
+      <c r="O11">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0.98</v>
+      </c>
+      <c r="G12">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.503</v>
+      </c>
+      <c r="C13">
+        <v>0.246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0.45</v>
+      </c>
+      <c r="G13">
+        <v>0.254</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.184</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>0.36</v>
+      </c>
+      <c r="K14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C17">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="C18">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0.437</v>
+      </c>
+      <c r="C19">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0.81</v>
+      </c>
+      <c r="C20">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C21">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0.436</v>
+      </c>
+      <c r="C28">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C29">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="12"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:C14">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G14">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K14">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O14">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C29">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -4661,16 +4592,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="119"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="6"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="117" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4679,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -4929,16 +4860,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="116"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="115" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6675,58 +6606,58 @@
   </sheetData>
   <autoFilter ref="H51:M65" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H52:M65">
-      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="113"/>
+      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="59"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:G15">
-    <cfRule type="cellIs" dxfId="112" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:O15">
-    <cfRule type="cellIs" dxfId="111" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="11" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:G32">
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O32">
-    <cfRule type="cellIs" dxfId="109" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F49">
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M49">
-    <cfRule type="cellIs" dxfId="107" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:F65">
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:M65">
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
       <formula>0.395</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
       <formula>0.39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
       <formula>0.35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6739,8 +6670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="F46" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8208,46 +8139,46 @@
   </sheetData>
   <autoFilter ref="H46:L59" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H47:L59">
-      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="46"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:F14">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:M14">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:F29">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M29">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:E44">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:L44">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:E59">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:L59">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8257,6 +8188,212 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B0D20-5E48-4763-A83B-7B371039BA3E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.06640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="29.19921875" customWidth="1"/>
+    <col min="5" max="5" width="21.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.251</v>
+      </c>
+      <c r="E2">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E5">
+        <v>-0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0.104</v>
+      </c>
+      <c r="D6">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>0.214</v>
+      </c>
+      <c r="C7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D7">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>0.66</v>
+      </c>
+      <c r="D9">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D11">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C13">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E14">
+        <v>-0.215</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:E14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -9395,47 +9532,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="150"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="37"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="149" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="148" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="147" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="146" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="145" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="144" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="143" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="142" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9444,7 +9581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -10055,16 +10192,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="141"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="28"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="140" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="139" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10073,7 +10210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -10358,11 +10495,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="138"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="25"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10371,7 +10508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -11004,30 +11141,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="136"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="23"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="133" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11036,7 +11173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -11471,672 +11608,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="129"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="16"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="128" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="126" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
-  <dimension ref="A1:O29"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" customWidth="1"/>
-    <col min="9" max="9" width="13.53125" customWidth="1"/>
-    <col min="13" max="13" width="13.06640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G2">
-        <v>0.52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>0.436</v>
-      </c>
-      <c r="K2">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="O2">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="C3">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="K3">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>0.53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>0.502</v>
-      </c>
-      <c r="M5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>0.98</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>-0.12</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.307</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="O8">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>0.434</v>
-      </c>
-      <c r="C9">
-        <v>0.504</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="G9">
-        <v>-0.125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>0.214</v>
-      </c>
-      <c r="O9">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.33</v>
-      </c>
-      <c r="C10">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0.12</v>
-      </c>
-      <c r="C11">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="M11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <v>0.377</v>
-      </c>
-      <c r="O11">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>0.98</v>
-      </c>
-      <c r="G12">
-        <v>-0.11899999999999999</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>0.503</v>
-      </c>
-      <c r="C13">
-        <v>0.246</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>0.45</v>
-      </c>
-      <c r="G13">
-        <v>0.254</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="K13">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="M13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="G14">
-        <v>0.184</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>0.36</v>
-      </c>
-      <c r="K14">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>0.97899999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="C17">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="C18">
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>0.437</v>
-      </c>
-      <c r="C19">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>0.81</v>
-      </c>
-      <c r="C20">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="C21">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="C23">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="C24">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="C25">
-        <v>0.57699999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C26">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="C27">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>0.436</v>
-      </c>
-      <c r="C28">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="C29">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
-      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="125"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:C14">
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G14">
-    <cfRule type="cellIs" dxfId="123" priority="4" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K14">
-    <cfRule type="cellIs" dxfId="122" priority="3" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O14">
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C29">
-    <cfRule type="cellIs" dxfId="120" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18694EE0-267A-4391-9BBE-1110E7EC3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F4907-F4B0-4278-A3E5-D9990C356BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
@@ -1293,248 +1293,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1619,10 +1383,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1707,10 +1473,262 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1843,92 +1861,74 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3481,39 +3481,39 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="68" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="17" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="67" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="65" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4140,31 +4140,31 @@
   </sheetData>
   <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
-      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="12"/>
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="61"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C14">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G14">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K14">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O14">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C29">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4592,16 +4592,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="6"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="60"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4860,16 +4860,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="3"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="59"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6606,58 +6606,58 @@
   </sheetData>
   <autoFilter ref="H51:M65" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H52:M65">
-      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="59"/>
+      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="68"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:G15">
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="12" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:O15">
-    <cfRule type="cellIs" dxfId="57" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:G32">
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O32">
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F49">
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M49">
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:F65">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:M65">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+      <formula>0.35</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
+      <formula>0.39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThan">
       <formula>0.395</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
-      <formula>0.39</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
-      <formula>0.35</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8139,46 +8139,46 @@
   </sheetData>
   <autoFilter ref="H46:L59" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H47:L59">
-      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="46"/>
+      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="67"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:F14">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:M14">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:F29">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M29">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:E44">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:L44">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:E59">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:L59">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8192,7 +8192,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8384,7 +8384,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9532,47 +9532,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="37"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="66"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10192,16 +10192,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="28"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="65"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10495,11 +10495,11 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="25"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="64"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11141,30 +11141,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="23"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="63"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11608,21 +11608,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="16"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="62"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F4907-F4B0-4278-A3E5-D9990C356BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45970B3F-DACE-4E45-9B15-C7B1414355CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="5" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
     <sheet name="Combine Pray and Spirit" sheetId="12" r:id="rId2"/>
     <sheet name="Comb Pray Spirit Drop Bio" sheetId="13" r:id="rId3"/>
     <sheet name="Final EFA" sheetId="14" r:id="rId4"/>
-    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId5"/>
-    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId6"/>
-    <sheet name="PCA" sheetId="8" r:id="rId7"/>
-    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId8"/>
-    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId9"/>
-    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId10"/>
-    <sheet name="Comparing MPM" sheetId="6" r:id="rId11"/>
-    <sheet name="Numeric" sheetId="5" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId5"/>
+    <sheet name="CFA std loadings" sheetId="16" r:id="rId6"/>
+    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId7"/>
+    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId8"/>
+    <sheet name="PCA" sheetId="8" r:id="rId9"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId11"/>
+    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId12"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId13"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Comb Pray Spirit Drop Bio'!$H$46:$L$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combine Pray and Spirit'!$H$51:$M$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Numeric!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PCA!$B$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PCA!$B$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$E$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1020,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="69">
   <si>
     <t>ML2</t>
   </si>
@@ -1201,6 +1204,33 @@
   <si>
     <t>Manipulative Treatments</t>
   </si>
+  <si>
+    <t>Factor 1 (Mind Body Practices)</t>
+  </si>
+  <si>
+    <t>Relaxation and Meditation Techniques</t>
+  </si>
+  <si>
+    <t>Factor 2 (Alternative Medical Systems)</t>
+  </si>
+  <si>
+    <t>Factor 3 (Physical and Nutritional Approaches)</t>
+  </si>
+  <si>
+    <t>Exercise and Movement</t>
+  </si>
+  <si>
+    <t>Factor 4 (Manipulative Treatments)</t>
+  </si>
+  <si>
+    <t>Wave 1</t>
+  </si>
+  <si>
+    <t>Wave 2</t>
+  </si>
+  <si>
+    <t>Wave 3</t>
+  </si>
 </sst>
 </file>
 
@@ -1261,7 +1291,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1269,6 +1299,368 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1363,372 +1755,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1861,74 +1891,92 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2294,7 +2342,7 @@
     <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="13.86328125" customWidth="1"/>
     <col min="6" max="6" width="10.265625" customWidth="1"/>
-    <col min="10" max="10" width="13.53125" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
     <col min="16" max="16" width="13.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.86328125" customWidth="1"/>
   </cols>
@@ -3477,43 +3525,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="69"/>
+      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="71"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="58" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="17" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3523,6 +3571,1129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>-0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0.188</v>
+      </c>
+      <c r="H4">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="I4">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>0.157</v>
+      </c>
+      <c r="O4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.151</v>
+      </c>
+      <c r="Q4">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.37</v>
+      </c>
+      <c r="C5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.318</v>
+      </c>
+      <c r="J5">
+        <v>0.154</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>0.114</v>
+      </c>
+      <c r="J6">
+        <v>-0.217</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>0.74</v>
+      </c>
+      <c r="Q6">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.109</v>
+      </c>
+      <c r="C7">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>0.85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="J8">
+        <v>0.105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N9">
+        <v>-0.182</v>
+      </c>
+      <c r="O9">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>-0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.875</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.158</v>
+      </c>
+      <c r="Q10">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>0.106</v>
+      </c>
+      <c r="H11">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J11">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="P11">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>-0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>0.745</v>
+      </c>
+      <c r="P12">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I13">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D14">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0.504</v>
+      </c>
+      <c r="P14">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>-0.378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2.734</v>
+      </c>
+      <c r="C17">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.367</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>2.6680000000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="I17">
+        <v>1.095</v>
+      </c>
+      <c r="J17">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="O17">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="P17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.21</v>
+      </c>
+      <c r="C18">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.192</v>
+      </c>
+      <c r="I18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.153</v>
+      </c>
+      <c r="O18">
+        <v>0.104</v>
+      </c>
+      <c r="P18">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.21</v>
+      </c>
+      <c r="C19">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="O19">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="P19">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="22"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="M2:Q14">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+      <formula>-0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D14">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J14">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-0.01</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+      <c r="D2">
+        <v>0.27</v>
+      </c>
+      <c r="E2">
+        <v>0.37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>-0.03</v>
+      </c>
+      <c r="I2">
+        <v>0.05</v>
+      </c>
+      <c r="J2">
+        <v>0.25</v>
+      </c>
+      <c r="K2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.12</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>-0.03</v>
+      </c>
+      <c r="E3">
+        <v>0.44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0.06</v>
+      </c>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+      <c r="J3">
+        <v>-0.05</v>
+      </c>
+      <c r="K3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.11</v>
+      </c>
+      <c r="C4">
+        <v>-0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.36</v>
+      </c>
+      <c r="E4">
+        <v>-0.06</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0.11</v>
+      </c>
+      <c r="I4">
+        <v>-0.08</v>
+      </c>
+      <c r="J4">
+        <v>0.33</v>
+      </c>
+      <c r="K4">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
+      </c>
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.75</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>0.37</v>
+      </c>
+      <c r="D6">
+        <v>0.06</v>
+      </c>
+      <c r="E6">
+        <v>-0.09</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>-0.01</v>
+      </c>
+      <c r="I6">
+        <v>0.81</v>
+      </c>
+      <c r="J6">
+        <v>-0.01</v>
+      </c>
+      <c r="K6">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>-0.02</v>
+      </c>
+      <c r="C7">
+        <v>0.71</v>
+      </c>
+      <c r="D7">
+        <v>-0.03</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.37</v>
+      </c>
+      <c r="J7">
+        <v>0.13</v>
+      </c>
+      <c r="K7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.47</v>
+      </c>
+      <c r="D8">
+        <v>0.11</v>
+      </c>
+      <c r="E8">
+        <v>0.13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0.33</v>
+      </c>
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+      <c r="K8">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.31</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+      <c r="E9">
+        <v>-0.12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K9">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.63</v>
+      </c>
+      <c r="C10">
+        <v>0.04</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="E10">
+        <v>0.02</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>0.65</v>
+      </c>
+      <c r="I10">
+        <v>0.02</v>
+      </c>
+      <c r="J10">
+        <v>0.02</v>
+      </c>
+      <c r="K10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+      <c r="D11">
+        <v>-0.08</v>
+      </c>
+      <c r="E11">
+        <v>0.21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0.33</v>
+      </c>
+      <c r="I11">
+        <v>0.03</v>
+      </c>
+      <c r="J11">
+        <v>-0.08</v>
+      </c>
+      <c r="K11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.63</v>
+      </c>
+      <c r="C12">
+        <v>-0.03</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0.63</v>
+      </c>
+      <c r="I12">
+        <v>-0.03</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0.04</v>
+      </c>
+      <c r="C13">
+        <v>0.26</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="E13">
+        <v>-0.02</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+      <c r="C14">
+        <v>0.24</v>
+      </c>
+      <c r="D14">
+        <v>0.04</v>
+      </c>
+      <c r="E14">
+        <v>-0.09</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="15"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B1:E1048576">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:K1">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:K12">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -3532,10 +4703,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" customWidth="1"/>
     <col min="5" max="5" width="12.86328125" customWidth="1"/>
-    <col min="9" max="9" width="13.53125" customWidth="1"/>
-    <col min="13" max="13" width="13.06640625" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -4140,31 +5311,31 @@
   </sheetData>
   <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
-      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="61"/>
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="11"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C14">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G14">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K14">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O14">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4173,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -4181,7 +5352,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4592,16 +5763,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="60"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="5"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4610,7 +5781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -4860,7 +6031,7 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="59"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="2"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
@@ -4890,7 +6061,7 @@
   <cols>
     <col min="1" max="1" width="15.59765625" customWidth="1"/>
     <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" customWidth="1"/>
+    <col min="8" max="9" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -6606,58 +7777,58 @@
   </sheetData>
   <autoFilter ref="H51:M65" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H52:M65">
-      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="68"/>
+      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="61"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:G15">
-    <cfRule type="cellIs" dxfId="49" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:O15">
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:G32">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O32">
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F49">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M49">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:F65">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:M65">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
       <formula>0.35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
       <formula>0.39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
       <formula>0.395</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8139,46 +9310,46 @@
   </sheetData>
   <autoFilter ref="H46:L59" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H47:L59">
-      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="67"/>
+      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="48"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:F14">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:M14">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:F29">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M29">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:E44">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:L44">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:E59">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:L59">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8191,16 +9362,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B0D20-5E48-4763-A83B-7B371039BA3E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.06640625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="17.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" customWidth="1"/>
-    <col min="4" max="4" width="29.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="4" max="4" width="29.1328125" customWidth="1"/>
     <col min="5" max="5" width="21.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8384,7 +9555,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8394,6 +9565,498 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DCAE64-8530-4592-A838-A6CB5F75441C}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.52</v>
+      </c>
+      <c r="C2">
+        <v>0.26</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.68</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>-0.37</v>
+      </c>
+      <c r="E3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.93</v>
+      </c>
+      <c r="C4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.95</v>
+      </c>
+      <c r="C5">
+        <v>-0.1</v>
+      </c>
+      <c r="D5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.52</v>
+      </c>
+      <c r="C6">
+        <v>-0.03</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.21</v>
+      </c>
+      <c r="C7">
+        <v>0.67</v>
+      </c>
+      <c r="D7">
+        <v>-0.27</v>
+      </c>
+      <c r="E7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.06</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
+        <v>0.22</v>
+      </c>
+      <c r="E8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-0.04</v>
+      </c>
+      <c r="C9">
+        <v>0.66</v>
+      </c>
+      <c r="D9">
+        <v>0.32</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.06</v>
+      </c>
+      <c r="C10">
+        <v>-0.21</v>
+      </c>
+      <c r="D10">
+        <v>0.64</v>
+      </c>
+      <c r="E10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>-0.01</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E11">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0.09</v>
+      </c>
+      <c r="D12">
+        <v>0.52</v>
+      </c>
+      <c r="E12">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-0.17</v>
+      </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
+      <c r="D13">
+        <v>-0.05</v>
+      </c>
+      <c r="E13">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.06</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.13</v>
+      </c>
+      <c r="E14">
+        <v>0.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E14" xr:uid="{87DCAE64-8530-4592-A838-A6CB5F75441C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="38"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:E14">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+      <formula>0.499</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6D6342-FAB0-45B3-B96B-783C62CCE1DB}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0.61</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.88</v>
+      </c>
+      <c r="D4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0.89</v>
+      </c>
+      <c r="C5">
+        <v>0.77</v>
+      </c>
+      <c r="D5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>0.89</v>
+      </c>
+      <c r="C6">
+        <v>0.89</v>
+      </c>
+      <c r="D6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.68</v>
+      </c>
+      <c r="D7">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0.89</v>
+      </c>
+      <c r="C9">
+        <v>0.91</v>
+      </c>
+      <c r="D9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.91</v>
+      </c>
+      <c r="D10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>0.67</v>
+      </c>
+      <c r="C11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>0.71</v>
+      </c>
+      <c r="C13">
+        <v>0.74</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>0.71</v>
+      </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+      <c r="D14">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15">
+        <v>0.42</v>
+      </c>
+      <c r="D15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0.51</v>
+      </c>
+      <c r="C18">
+        <v>0.52</v>
+      </c>
+      <c r="D18">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -8405,8 +10068,8 @@
   <cols>
     <col min="1" max="1" width="13.86328125" customWidth="1"/>
     <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="12.06640625" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15.265625" customWidth="1"/>
     <col min="13" max="13" width="12.59765625" customWidth="1"/>
     <col min="16" max="16" width="14.265625" customWidth="1"/>
     <col min="19" max="19" width="14.59765625" customWidth="1"/>
@@ -9532,47 +11195,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="66"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="36"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9581,7 +11244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -9590,7 +11253,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -10192,16 +11855,16 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="65"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="27"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10210,7 +11873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -10220,7 +11883,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -10495,1138 +12158,15 @@
   </sheetData>
   <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="64"/>
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="24"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0.699</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
-  <dimension ref="A1:Q19"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="J2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="J3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-0.2</v>
-      </c>
-      <c r="D4">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0.188</v>
-      </c>
-      <c r="H4">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="I4">
-        <v>-0.20300000000000001</v>
-      </c>
-      <c r="J4">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>0.157</v>
-      </c>
-      <c r="O4">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="P4">
-        <v>0.151</v>
-      </c>
-      <c r="Q4">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.37</v>
-      </c>
-      <c r="C5">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.318</v>
-      </c>
-      <c r="J5">
-        <v>0.154</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="N5">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="O5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>0.75</v>
-      </c>
-      <c r="I6">
-        <v>0.114</v>
-      </c>
-      <c r="J6">
-        <v>-0.217</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>0.74</v>
-      </c>
-      <c r="Q6">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.109</v>
-      </c>
-      <c r="C7">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>0.85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="J8">
-        <v>0.105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="D9">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="L9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="N9">
-        <v>-0.182</v>
-      </c>
-      <c r="O9">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="Q9">
-        <v>-0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.875</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="N10">
-        <v>0.158</v>
-      </c>
-      <c r="Q10">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0.36</v>
-      </c>
-      <c r="C11">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>0.106</v>
-      </c>
-      <c r="H11">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="I11">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J11">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="P11">
-        <v>-0.16700000000000001</v>
-      </c>
-      <c r="Q11">
-        <v>-0.26300000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12">
-        <v>0.745</v>
-      </c>
-      <c r="P12">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="I13">
-        <v>-0.24099999999999999</v>
-      </c>
-      <c r="J13">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="D14">
-        <v>-0.11799999999999999</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="J14">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>0.504</v>
-      </c>
-      <c r="P14">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="Q14">
-        <v>-0.378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>2.734</v>
-      </c>
-      <c r="C17">
-        <v>2.6259999999999999</v>
-      </c>
-      <c r="D17">
-        <v>1.367</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17">
-        <v>2.6680000000000001</v>
-      </c>
-      <c r="H17">
-        <v>2.5009999999999999</v>
-      </c>
-      <c r="I17">
-        <v>1.095</v>
-      </c>
-      <c r="J17">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17">
-        <v>2.5289999999999999</v>
-      </c>
-      <c r="N17">
-        <v>1.9890000000000001</v>
-      </c>
-      <c r="O17">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="P17">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>0.58499999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.21</v>
-      </c>
-      <c r="C18">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.192</v>
-      </c>
-      <c r="I18">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="J18">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.153</v>
-      </c>
-      <c r="O18">
-        <v>0.104</v>
-      </c>
-      <c r="P18">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="Q18">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.21</v>
-      </c>
-      <c r="C19">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="I19">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="J19">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="N19">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="O19">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="P19">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="Q19">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="63"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
-      <formula>-0.299</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
-      <formula>0.399</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
-      <formula>0.399</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>-0.01</v>
-      </c>
-      <c r="C2">
-        <v>0.08</v>
-      </c>
-      <c r="D2">
-        <v>0.27</v>
-      </c>
-      <c r="E2">
-        <v>0.37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>-0.03</v>
-      </c>
-      <c r="I2">
-        <v>0.05</v>
-      </c>
-      <c r="J2">
-        <v>0.25</v>
-      </c>
-      <c r="K2">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0.12</v>
-      </c>
-      <c r="C3">
-        <v>0.05</v>
-      </c>
-      <c r="D3">
-        <v>-0.03</v>
-      </c>
-      <c r="E3">
-        <v>0.44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>0.06</v>
-      </c>
-      <c r="I3">
-        <v>0.01</v>
-      </c>
-      <c r="J3">
-        <v>-0.05</v>
-      </c>
-      <c r="K3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.11</v>
-      </c>
-      <c r="C4">
-        <v>-0.1</v>
-      </c>
-      <c r="D4">
-        <v>0.36</v>
-      </c>
-      <c r="E4">
-        <v>-0.06</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>0.11</v>
-      </c>
-      <c r="I4">
-        <v>-0.08</v>
-      </c>
-      <c r="J4">
-        <v>0.33</v>
-      </c>
-      <c r="K4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
-      </c>
-      <c r="D5">
-        <v>0.7</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>0.01</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.75</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.25</v>
-      </c>
-      <c r="C6">
-        <v>0.37</v>
-      </c>
-      <c r="D6">
-        <v>0.06</v>
-      </c>
-      <c r="E6">
-        <v>-0.09</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>-0.01</v>
-      </c>
-      <c r="I6">
-        <v>0.81</v>
-      </c>
-      <c r="J6">
-        <v>-0.01</v>
-      </c>
-      <c r="K6">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>-0.02</v>
-      </c>
-      <c r="C7">
-        <v>0.71</v>
-      </c>
-      <c r="D7">
-        <v>-0.03</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I7">
-        <v>0.37</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.02</v>
-      </c>
-      <c r="C8">
-        <v>0.47</v>
-      </c>
-      <c r="D8">
-        <v>0.11</v>
-      </c>
-      <c r="E8">
-        <v>0.13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0.33</v>
-      </c>
-      <c r="I8">
-        <v>0.04</v>
-      </c>
-      <c r="J8">
-        <v>0.02</v>
-      </c>
-      <c r="K8">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.31</v>
-      </c>
-      <c r="C9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.03</v>
-      </c>
-      <c r="E9">
-        <v>-0.12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K9">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0.63</v>
-      </c>
-      <c r="C10">
-        <v>0.04</v>
-      </c>
-      <c r="D10">
-        <v>0.03</v>
-      </c>
-      <c r="E10">
-        <v>0.02</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>0.65</v>
-      </c>
-      <c r="I10">
-        <v>0.02</v>
-      </c>
-      <c r="J10">
-        <v>0.02</v>
-      </c>
-      <c r="K10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0.36</v>
-      </c>
-      <c r="C11">
-        <v>0.03</v>
-      </c>
-      <c r="D11">
-        <v>-0.08</v>
-      </c>
-      <c r="E11">
-        <v>0.21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>0.33</v>
-      </c>
-      <c r="I11">
-        <v>0.03</v>
-      </c>
-      <c r="J11">
-        <v>-0.08</v>
-      </c>
-      <c r="K11">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0.63</v>
-      </c>
-      <c r="C12">
-        <v>-0.03</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12">
-        <v>0.63</v>
-      </c>
-      <c r="I12">
-        <v>-0.03</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>0.04</v>
-      </c>
-      <c r="C13">
-        <v>0.26</v>
-      </c>
-      <c r="D13">
-        <v>0.04</v>
-      </c>
-      <c r="E13">
-        <v>-0.02</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-      <c r="C14">
-        <v>0.24</v>
-      </c>
-      <c r="D14">
-        <v>0.04</v>
-      </c>
-      <c r="E14">
-        <v>-0.09</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="62"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/R/Factor analysis  - factor loadings.xlsx
+++ b/R/Factor analysis  - factor loadings.xlsx
@@ -1,46 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45970B3F-DACE-4E45-9B15-C7B1414355CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098BF8C-1A77-40FE-8543-A4D10A9EC66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="5" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{1DD09E13-5243-4F1E-B7D4-320B301DF208}"/>
   </bookViews>
   <sheets>
     <sheet name="All CAMs" sheetId="1" r:id="rId1"/>
     <sheet name="Combine Pray and Spirit" sheetId="12" r:id="rId2"/>
-    <sheet name="Comb Pray Spirit Drop Bio" sheetId="13" r:id="rId3"/>
-    <sheet name="Final EFA" sheetId="14" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId5"/>
-    <sheet name="CFA std loadings" sheetId="16" r:id="rId6"/>
-    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId7"/>
-    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId8"/>
-    <sheet name="PCA" sheetId="8" r:id="rId9"/>
-    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId10"/>
-    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId11"/>
-    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId12"/>
-    <sheet name="Comparing MPM" sheetId="6" r:id="rId13"/>
-    <sheet name="Numeric" sheetId="5" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
+    <sheet name="Comb Pray Spirit Drop Bio" sheetId="13" r:id="rId4"/>
+    <sheet name="Final EFA" sheetId="14" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId6"/>
+    <sheet name="CFA std loadings" sheetId="16" r:id="rId7"/>
+    <sheet name="Drop energy, pray, spirit" sheetId="10" r:id="rId8"/>
+    <sheet name="Principal Axis Factoring" sheetId="9" r:id="rId9"/>
+    <sheet name="PCA" sheetId="8" r:id="rId10"/>
+    <sheet name="Drop prayer and spirit" sheetId="2" state="hidden" r:id="rId11"/>
+    <sheet name="Mysterious Perfect Model" sheetId="3" r:id="rId12"/>
+    <sheet name="Ex Pray Spirit Comparisons" sheetId="11" r:id="rId13"/>
+    <sheet name="Comparing MPM" sheetId="6" r:id="rId14"/>
+    <sheet name="Numeric" sheetId="5" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All CAMs'!$A$1:$AC$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Comb Pray Spirit Drop Bio'!$H$46:$L$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Comb Pray Spirit Drop Bio'!$H$46:$L$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combine Pray and Spirit'!$H$51:$M$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Numeric!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PCA!$B$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Comparing MPM'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Drop energy, pray, spirit'!$A$15:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Drop prayer and spirit'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Ex Pray Spirit Comparisons'!$A$16:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Mysterious Perfect Model'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Numeric!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">PCA!$B$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Principal Axis Factoring'!$H$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$66:$E$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -274,6 +276,141 @@
     <author>hanna</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BF07EF22-39DC-4119-8DF2-E0F29C3B0008}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelihood, varimax rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FC0F7213-7285-4B2C-B961-AEEC5050BD1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum Likelihood, promax rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2510CC9D-8268-435A-8CB7-4E7BC12401C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum likelihood, oblimin rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5EA7F6F2-02E1-4A68-8922-3BBD5F6D467E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maximum Likelihood, cluster rotation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E0824D5C-0A44-4F46-8A81-A476B5475001}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hanna:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Principal Axis, varimax
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hanna</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D5712E48-0578-4E7B-970F-9D684F744419}">
       <text>
         <r>
@@ -328,7 +465,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -364,6 +501,87 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={62140F1E-E015-4347-8CCB-0F6A2B60F321}</author>
+    <author>tc={1280B8E6-9065-4846-BB3B-846E86FE89C6}</author>
+    <author>tc={73416874-87C4-4DFB-9577-EA58B86D3239}</author>
+    <author>tc={AB8C3CC9-E867-4720-B57C-DA6CD63F12C3}</author>
+    <author>tc={04C3A851-58E3-4C88-A504-E6D4A6DC7F89}</author>
+    <author>tc={E4E30268-700A-40A4-BE94-C8A501AFE0C9}</author>
+    <author>tc={21726126-81A9-419D-8B18-99E0332C5D44}</author>
+    <author>tc={A7233670-12F4-4AC7-B8B8-DBA2FA7AD68F}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{62140F1E-E015-4347-8CCB-0F6A2B60F321}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 6 ml varimax</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{1280B8E6-9065-4846-BB3B-846E86FE89C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 6 ml promax</t>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="2" shapeId="0" xr:uid="{73416874-87C4-4DFB-9577-EA58B86D3239}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 6 ml cluster</t>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="3" shapeId="0" xr:uid="{AB8C3CC9-E867-4720-B57C-DA6CD63F12C3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 6 ml oblimin</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="4" shapeId="0" xr:uid="{04C3A851-58E3-4C88-A504-E6D4A6DC7F89}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 5 ml varimax</t>
+      </text>
+    </comment>
+    <comment ref="H33" authorId="5" shapeId="0" xr:uid="{E4E30268-700A-40A4-BE94-C8A501AFE0C9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 5 ml promax</t>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="6" shapeId="0" xr:uid="{21726126-81A9-419D-8B18-99E0332C5D44}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 5 ml cluster</t>
+      </text>
+    </comment>
+    <comment ref="H49" authorId="7" shapeId="0" xr:uid="{A7233670-12F4-4AC7-B8B8-DBA2FA7AD68F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    all 5 ml oblimin</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -569,7 +787,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -603,7 +821,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={05F861C7-3F05-45BE-A842-A70399D00986}</author>
@@ -756,7 +974,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}</author>
@@ -774,7 +992,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}</author>
@@ -792,7 +1010,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -827,7 +1045,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hanna</author>
@@ -887,143 +1105,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>hanna</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BF07EF22-39DC-4119-8DF2-E0F29C3B0008}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Maximum likelihood, varimax rotation
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FC0F7213-7285-4B2C-B961-AEEC5050BD1E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Maximum Likelihood, promax rotation
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2510CC9D-8268-435A-8CB7-4E7BC12401C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Maximum likelihood, oblimin rotation
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5EA7F6F2-02E1-4A68-8922-3BBD5F6D467E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Maximum Likelihood, cluster rotation
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E0824D5C-0A44-4F46-8A81-A476B5475001}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hanna:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Principal Axis, varimax
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="69">
   <si>
     <t>ML2</t>
   </si>
@@ -1291,7 +1374,1073 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="194">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2304,6 +3453,35 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-09-27T18:45:37.55" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{62140F1E-E015-4347-8CCB-0F6A2B60F321}">
+    <text>all 6 ml varimax</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2021-09-27T18:49:06.33" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{1280B8E6-9065-4846-BB3B-846E86FE89C6}">
+    <text>all 6 ml promax</text>
+  </threadedComment>
+  <threadedComment ref="A17" dT="2021-09-27T18:58:54.84" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{73416874-87C4-4DFB-9577-EA58B86D3239}">
+    <text>all 6 ml cluster</text>
+  </threadedComment>
+  <threadedComment ref="I17" dT="2021-09-27T19:00:25.74" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{AB8C3CC9-E867-4720-B57C-DA6CD63F12C3}">
+    <text>all 6 ml oblimin</text>
+  </threadedComment>
+  <threadedComment ref="A33" dT="2021-09-27T19:40:01.02" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{04C3A851-58E3-4C88-A504-E6D4A6DC7F89}">
+    <text>all 5 ml varimax</text>
+  </threadedComment>
+  <threadedComment ref="H33" dT="2021-09-27T19:41:15.34" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{E4E30268-700A-40A4-BE94-C8A501AFE0C9}">
+    <text>all 5 ml promax</text>
+  </threadedComment>
+  <threadedComment ref="A49" dT="2021-09-27T19:43:10.34" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{21726126-81A9-419D-8B18-99E0332C5D44}">
+    <text>all 5 ml cluster</text>
+  </threadedComment>
+  <threadedComment ref="H49" dT="2021-09-27T19:44:05.99" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{A7233670-12F4-4AC7-B8B8-DBA2FA7AD68F}">
+    <text>all 5 ml oblimin</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2021-06-12T19:29:21.77" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{05F861C7-3F05-45BE-A842-A70399D00986}">
     <text>Maximum likelihood, varimax</text>
   </threadedComment>
@@ -2313,7 +3491,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2021-06-09T21:16:27.69" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{68C2D0A8-62BB-4214-AD84-976C7BE3AB2B}">
     <text>All CAMs, principal axis factoring (pa) with promax rotation</text>
@@ -2321,7 +3499,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2021-06-09T18:37:26.45" personId="{A5CA6894-FBDA-4D6C-B5C3-EC266C72EF46}" id="{F7A5C9D5-E716-4F51-8BD8-AA873D1AD48D}">
     <text>Principal Components with Varimax Rotation</text>
@@ -3525,43 +4703,43 @@
   </sheetData>
   <autoFilter ref="A1:AC16" xr:uid="{99B320C6-A597-4E1B-B5FD-F0989543660C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC16">
-      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="71"/>
+      <sortCondition sortBy="cellColor" ref="AC1:AC16" dxfId="193"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="Q2:U16">
-    <cfRule type="cellIs" dxfId="70" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="17" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H16">
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="13" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C16">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="10" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="12" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:N16">
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="3" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AC16">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3571,6 +4749,304 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.21</v>
+      </c>
+      <c r="C2">
+        <v>0.62</v>
+      </c>
+      <c r="D2">
+        <v>0.31</v>
+      </c>
+      <c r="E2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.23</v>
+      </c>
+      <c r="C3">
+        <v>0.59</v>
+      </c>
+      <c r="D3">
+        <v>0.24</v>
+      </c>
+      <c r="E3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.63</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>-0.04</v>
+      </c>
+      <c r="E4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.12</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.22</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>0.27</v>
+      </c>
+      <c r="E6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.52</v>
+      </c>
+      <c r="D7">
+        <v>0.52</v>
+      </c>
+      <c r="E7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8">
+        <v>0.26</v>
+      </c>
+      <c r="D8">
+        <v>0.51</v>
+      </c>
+      <c r="E8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.17</v>
+      </c>
+      <c r="C9">
+        <v>-0.04</v>
+      </c>
+      <c r="D9">
+        <v>0.78</v>
+      </c>
+      <c r="E9">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.06</v>
+      </c>
+      <c r="C10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.81</v>
+      </c>
+      <c r="E10">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.72</v>
+      </c>
+      <c r="D11">
+        <v>0.23</v>
+      </c>
+      <c r="E11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.11</v>
+      </c>
+      <c r="C12">
+        <v>0.71</v>
+      </c>
+      <c r="D12">
+        <v>-0.1</v>
+      </c>
+      <c r="E12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.49</v>
+      </c>
+      <c r="C13">
+        <v>0.54</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.82</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <v>0.05</v>
+      </c>
+      <c r="E14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.53</v>
+      </c>
+      <c r="C15">
+        <v>0.48</v>
+      </c>
+      <c r="D15">
+        <v>0.47</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.72</v>
+      </c>
+      <c r="C16">
+        <v>0.22</v>
+      </c>
+      <c r="D16">
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
+      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="146"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:E16">
+    <cfRule type="cellIs" dxfId="145" priority="1" operator="greaterThan">
+      <formula>0.699</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D61808F-2A1D-4F74-9E35-43CB27586058}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -4203,30 +5679,30 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{85F09F99-28C1-4BB1-A75C-F2C0B1518057}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
-      <sortCondition sortBy="cellColor" ref="D1" dxfId="22"/>
+      <sortCondition sortBy="cellColor" ref="D1" dxfId="144"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="M2:Q14">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="6" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4235,7 +5711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8727E6E-4063-4F85-BAE5-AB6F095D427F}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -4670,21 +6146,21 @@
   </sheetData>
   <autoFilter ref="A1:F14" xr:uid="{F6EC43A2-0E96-4311-A986-12EE04542C46}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="15"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="137"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K12">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4693,7 +6169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -5311,31 +6787,31 @@
   </sheetData>
   <autoFilter ref="A16:C29" xr:uid="{498CC891-573B-427D-8528-B6E57CC0DFD4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:C29">
-      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="11"/>
+      <sortCondition sortBy="cellColor" ref="C16:C29" dxfId="133"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:C14">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G14">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K14">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O14">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C29">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5344,7 +6820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC6BCC2-AE82-430A-9446-637AC6346772}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -5763,16 +7239,16 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{2A2FF23C-A49F-4BBF-A172-E01688A2AD61}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-      <sortCondition sortBy="cellColor" ref="E1" dxfId="5"/>
+      <sortCondition sortBy="cellColor" ref="E1" dxfId="127"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5781,7 +7257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8C1A-CFC6-49AC-B896-635D55B44BA8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -6031,16 +7507,16 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{76B16ADE-8397-4523-89E6-FD43024CAE02}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition sortBy="cellColor" ref="J1" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="J1" dxfId="124"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:D14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6053,7 +7529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -7777,58 +9253,58 @@
   </sheetData>
   <autoFilter ref="H51:M65" xr:uid="{F695CD81-3D97-4E1C-8866-BD773BF04255}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H52:M65">
-      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="61"/>
+      <sortCondition sortBy="cellColor" ref="L51:L65" dxfId="183"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:G15">
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="12" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:O15">
-    <cfRule type="cellIs" dxfId="59" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="11" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:G32">
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="10" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O32">
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="9" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F49">
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M49">
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:F65">
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:M65">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="greaterThan">
       <formula>0.35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="3" operator="greaterThan">
       <formula>0.39</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="4" operator="greaterThan">
       <formula>0.395</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7838,10 +9314,1968 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC876D89-A98F-4B75-B9D9-2CB804013531}">
+  <dimension ref="A1:O79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.9296875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>-0.127</v>
+      </c>
+      <c r="L2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.157</v>
+      </c>
+      <c r="C3">
+        <v>0.22</v>
+      </c>
+      <c r="D3">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <v>0.63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0.31</v>
+      </c>
+      <c r="C4">
+        <v>0.252</v>
+      </c>
+      <c r="G4">
+        <v>0.437</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>0.224</v>
+      </c>
+      <c r="L4">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0.23</v>
+      </c>
+      <c r="C5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.153</v>
+      </c>
+      <c r="E5">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>-0.159</v>
+      </c>
+      <c r="N5">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0.443</v>
+      </c>
+      <c r="C6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.312</v>
+      </c>
+      <c r="F6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.443</v>
+      </c>
+      <c r="O6">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0.185</v>
+      </c>
+      <c r="C7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.189</v>
+      </c>
+      <c r="D8">
+        <v>0.193</v>
+      </c>
+      <c r="E8">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>0.221</v>
+      </c>
+      <c r="L8">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="M8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.115</v>
+      </c>
+      <c r="F9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M9">
+        <v>-0.105</v>
+      </c>
+      <c r="N9">
+        <v>-0.193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.115</v>
+      </c>
+      <c r="F10">
+        <v>0.155</v>
+      </c>
+      <c r="G10">
+        <v>0.247</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.23</v>
+      </c>
+      <c r="M10">
+        <v>0.114</v>
+      </c>
+      <c r="O10">
+        <v>-0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>0.21</v>
+      </c>
+      <c r="C11">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.183</v>
+      </c>
+      <c r="E11">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="L11">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>0.24</v>
+      </c>
+      <c r="C12">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>0.61</v>
+      </c>
+      <c r="L12">
+        <v>0.129</v>
+      </c>
+      <c r="N12">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="O12">
+        <v>-0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.217</v>
+      </c>
+      <c r="F13">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.26</v>
+      </c>
+      <c r="G14">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M14">
+        <v>-0.113</v>
+      </c>
+      <c r="O14">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.159</v>
+      </c>
+      <c r="F15">
+        <v>0.111</v>
+      </c>
+      <c r="G15">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <v>0.873</v>
+      </c>
+      <c r="K15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="N15">
+        <v>-0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.129</v>
+      </c>
+      <c r="F18">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>0.191</v>
+      </c>
+      <c r="E19">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19">
+        <v>0.115</v>
+      </c>
+      <c r="N19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.186</v>
+      </c>
+      <c r="E20">
+        <v>0.123</v>
+      </c>
+      <c r="F20">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.128</v>
+      </c>
+      <c r="D21">
+        <v>-0.104</v>
+      </c>
+      <c r="F21">
+        <v>0.42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="M21">
+        <v>0.155</v>
+      </c>
+      <c r="N21">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O21">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>0.99</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M22">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>0.22</v>
+      </c>
+      <c r="C23">
+        <v>-0.252</v>
+      </c>
+      <c r="D23">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23">
+        <v>0.214</v>
+      </c>
+      <c r="L23">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="M23">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>0.999</v>
+      </c>
+      <c r="E24">
+        <v>-0.108</v>
+      </c>
+      <c r="F24">
+        <v>0.106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="L24">
+        <v>-0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D25">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="E25">
+        <v>-0.158</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M26">
+        <v>0.157</v>
+      </c>
+      <c r="N26">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="O26">
+        <v>-0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>1.04</v>
+      </c>
+      <c r="E27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F27">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="N27">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.127</v>
+      </c>
+      <c r="E28">
+        <v>0.124</v>
+      </c>
+      <c r="F28">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28">
+        <v>0.63</v>
+      </c>
+      <c r="O28">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D30">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30">
+        <v>0.311</v>
+      </c>
+      <c r="K30">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M30">
+        <v>0.221</v>
+      </c>
+      <c r="N30">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="O30">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G31">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>0.156</v>
+      </c>
+      <c r="C34">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.191</v>
+      </c>
+      <c r="E34">
+        <v>0.192</v>
+      </c>
+      <c r="F34">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="M34">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.436</v>
+      </c>
+      <c r="F35">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="M35">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>0.312</v>
+      </c>
+      <c r="E36">
+        <v>0.46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.121</v>
+      </c>
+      <c r="M36">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.18</v>
+      </c>
+      <c r="E37">
+        <v>0.91</v>
+      </c>
+      <c r="F37">
+        <v>0.123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="K37">
+        <v>-0.124</v>
+      </c>
+      <c r="L37">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.49</v>
+      </c>
+      <c r="D38">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="E38">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="M38">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C39">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.254</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="K39">
+        <v>1.06</v>
+      </c>
+      <c r="L39">
+        <v>-0.159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C40">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E40">
+        <v>0.27</v>
+      </c>
+      <c r="F40">
+        <v>0.157</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40">
+        <v>0.501</v>
+      </c>
+      <c r="J40">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="L40">
+        <v>-0.121</v>
+      </c>
+      <c r="M40">
+        <v>-0.121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D41">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E41">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41">
+        <v>-0.18</v>
+      </c>
+      <c r="J41">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="L41">
+        <v>-0.153</v>
+      </c>
+      <c r="M41">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C42">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D42">
+        <v>0.17</v>
+      </c>
+      <c r="E42">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42">
+        <v>0.191</v>
+      </c>
+      <c r="J42">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L42">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>0.497</v>
+      </c>
+      <c r="C43">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J43">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="L43">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E44">
+        <v>0.111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="K44">
+        <v>0.374</v>
+      </c>
+      <c r="L44">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M44">
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C45">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D45">
+        <v>0.124</v>
+      </c>
+      <c r="E45">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.378</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="K45">
+        <v>-0.105</v>
+      </c>
+      <c r="M45">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C46">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.307</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C47">
+        <v>0.184</v>
+      </c>
+      <c r="D47">
+        <v>0.115</v>
+      </c>
+      <c r="E47">
+        <v>0.124</v>
+      </c>
+      <c r="H47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="J47">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="K47">
+        <v>0.107</v>
+      </c>
+      <c r="L47">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>0.129</v>
+      </c>
+      <c r="F50">
+        <v>0.99</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M50">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F51">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E52">
+        <v>0.49</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J52">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="K52">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M52">
+        <v>-0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C53">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="D53">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E53">
+        <v>0.107</v>
+      </c>
+      <c r="F53">
+        <v>0.112</v>
+      </c>
+      <c r="H53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53">
+        <v>0.37</v>
+      </c>
+      <c r="J53">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.154</v>
+      </c>
+      <c r="L53">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>0.252</v>
+      </c>
+      <c r="D54">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54">
+        <v>0.186</v>
+      </c>
+      <c r="K54">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="L54">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>0.317</v>
+      </c>
+      <c r="D55">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.54</v>
+      </c>
+      <c r="E56">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="F56">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="M56">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>0.59</v>
+      </c>
+      <c r="D57">
+        <v>-0.123</v>
+      </c>
+      <c r="E57">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F57">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D58">
+        <v>0.371</v>
+      </c>
+      <c r="E58">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="L58">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="M58">
+        <v>-0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C60">
+        <v>0.217</v>
+      </c>
+      <c r="D60">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.157</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60">
+        <v>1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C61">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="D61">
+        <v>0.193</v>
+      </c>
+      <c r="F61">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L61">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>0.755</v>
+      </c>
+      <c r="C62">
+        <v>0.224</v>
+      </c>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J62">
+        <v>0.186</v>
+      </c>
+      <c r="M62">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63">
+        <v>0.43</v>
+      </c>
+      <c r="C63">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D63">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E63">
+        <v>0.104</v>
+      </c>
+      <c r="F63">
+        <v>0.128</v>
+      </c>
+      <c r="H63" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J63">
+        <v>0.59</v>
+      </c>
+      <c r="L63">
+        <v>-0.128</v>
+      </c>
+      <c r="M63">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.251</v>
+      </c>
+      <c r="E67">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E68">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="D69">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E69">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D70">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E70">
+        <v>-0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>0.104</v>
+      </c>
+      <c r="D71">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>0.214</v>
+      </c>
+      <c r="C72">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D72">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D73">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>0.66</v>
+      </c>
+      <c r="D74">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C75">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="E75">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="C76">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D76">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C78">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D79">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E79">
+        <v>-0.215</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A66:E79" xr:uid="{AC876D89-A98F-4B75-B9D9-2CB804013531}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A67:E79">
+      <sortCondition sortBy="cellColor" ref="E66:E79" dxfId="1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:G15">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:O15">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:G31">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:O31">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F47">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:M47">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F63">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M63">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+      <formula>0.399</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:E79">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+      <formula>0.499</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" zoomScale="140" workbookViewId="0">
+    <sheetView topLeftCell="F45" zoomScale="140" workbookViewId="0">
       <selection activeCell="H46" sqref="H46:L59"/>
     </sheetView>
   </sheetViews>
@@ -9310,46 +12744,46 @@
   </sheetData>
   <autoFilter ref="H46:L59" xr:uid="{26C42105-EFDA-4FA3-8AB1-E5E42D4D4CA4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H47:L59">
-      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="48"/>
+      <sortCondition sortBy="cellColor" ref="L46:L59" dxfId="170"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:F14">
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="8" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:M14">
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:F29">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="6" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M29">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="5" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:E44">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="4" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:L44">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="3" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:E59">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:L59">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9358,11 +12792,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B0D20-5E48-4763-A83B-7B371039BA3E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -9555,7 +12989,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="1" operator="greaterThan">
       <formula>0.399</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9564,7 +12998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DCAE64-8530-4592-A838-A6CB5F75441C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -9813,11 +13247,11 @@
   </sheetData>
   <autoFilter ref="A1:E14" xr:uid="{87DCAE64-8530-4592-A838-A6CB5F75441C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
-      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="38"/>
+      <sortCondition sortBy="cellColor" ref="E1:E14" dxfId="160"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E14">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="greaterThan">
       <formula>0.499</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9825,11 +13259,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6D6342-FAB0-45B3-B96B-783C62CCE1DB}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
@@ -10056,7 +13490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -11195,47 +14629,47 @@
   </sheetData>
   <autoFilter ref="A15:E27" xr:uid="{00DF5018-9911-4233-8E1E-CFEBD8577F16}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E27">
-      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="36"/>
+      <sortCondition sortBy="cellColor" ref="E15:E27" dxfId="158"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:D13">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="8" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I13">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="7" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N13">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="6" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S13">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="5" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E27">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="4" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:K27">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="3" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:Q27">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:W27">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11244,7 +14678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -11855,318 +15289,20 @@
   </sheetData>
   <autoFilter ref="H1:K16" xr:uid="{8B5509DC-DB05-43E6-A45B-32E76BC27DEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:K16">
-      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="27"/>
+      <sortCondition sortBy="cellColor" ref="K1:K16" dxfId="149"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.21</v>
-      </c>
-      <c r="C2">
-        <v>0.62</v>
-      </c>
-      <c r="D2">
-        <v>0.31</v>
-      </c>
-      <c r="E2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.23</v>
-      </c>
-      <c r="C3">
-        <v>0.59</v>
-      </c>
-      <c r="D3">
-        <v>0.24</v>
-      </c>
-      <c r="E3">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.63</v>
-      </c>
-      <c r="C4">
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <v>-0.04</v>
-      </c>
-      <c r="E4">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.12</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5">
-        <v>0.22</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-      <c r="C6">
-        <v>0.05</v>
-      </c>
-      <c r="D6">
-        <v>0.27</v>
-      </c>
-      <c r="E6">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.25</v>
-      </c>
-      <c r="C7">
-        <v>0.52</v>
-      </c>
-      <c r="D7">
-        <v>0.52</v>
-      </c>
-      <c r="E7">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.66</v>
-      </c>
-      <c r="C8">
-        <v>0.26</v>
-      </c>
-      <c r="D8">
-        <v>0.51</v>
-      </c>
-      <c r="E8">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.17</v>
-      </c>
-      <c r="C9">
-        <v>-0.04</v>
-      </c>
-      <c r="D9">
-        <v>0.78</v>
-      </c>
-      <c r="E9">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.06</v>
-      </c>
-      <c r="C10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.81</v>
-      </c>
-      <c r="E10">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>0.72</v>
-      </c>
-      <c r="D11">
-        <v>0.23</v>
-      </c>
-      <c r="E11">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.11</v>
-      </c>
-      <c r="C12">
-        <v>0.71</v>
-      </c>
-      <c r="D12">
-        <v>-0.1</v>
-      </c>
-      <c r="E12">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.49</v>
-      </c>
-      <c r="C13">
-        <v>0.54</v>
-      </c>
-      <c r="D13">
-        <v>0.04</v>
-      </c>
-      <c r="E13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.82</v>
-      </c>
-      <c r="C14">
-        <v>0.2</v>
-      </c>
-      <c r="D14">
-        <v>0.05</v>
-      </c>
-      <c r="E14">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.53</v>
-      </c>
-      <c r="C15">
-        <v>0.48</v>
-      </c>
-      <c r="D15">
-        <v>0.47</v>
-      </c>
-      <c r="E15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.72</v>
-      </c>
-      <c r="C16">
-        <v>0.22</v>
-      </c>
-      <c r="D16">
-        <v>0.48</v>
-      </c>
-      <c r="E16">
-        <v>0.18</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:E16" xr:uid="{4883B1BD-E07A-48BB-9F66-A8C7003F2BEF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E16">
-      <sortCondition sortBy="cellColor" ref="E1:E16" dxfId="24"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:E16">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
-      <formula>0.699</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>